--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6802,28 +6802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>743.9176064507027</v>
+        <v>804.8956095190937</v>
       </c>
       <c r="AB2" t="n">
-        <v>1017.860888474377</v>
+        <v>1101.293682432183</v>
       </c>
       <c r="AC2" t="n">
-        <v>920.7176738551108</v>
+        <v>996.1877590562456</v>
       </c>
       <c r="AD2" t="n">
-        <v>743917.6064507026</v>
+        <v>804895.6095190936</v>
       </c>
       <c r="AE2" t="n">
-        <v>1017860.888474377</v>
+        <v>1101293.682432183</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572097273814925e-06</v>
+        <v>2.908791554308144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.666341145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>920717.6738551108</v>
+        <v>996187.7590562456</v>
       </c>
     </row>
     <row r="3">
@@ -6908,28 +6908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.5021602319063</v>
+        <v>409.0037107269202</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.6738892647768</v>
+        <v>559.6169209868109</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.031328605142</v>
+        <v>506.2078674751106</v>
       </c>
       <c r="AD3" t="n">
-        <v>372502.1602319063</v>
+        <v>409003.7107269202</v>
       </c>
       <c r="AE3" t="n">
-        <v>509673.8892647768</v>
+        <v>559616.9209868109</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.473266230155443e-06</v>
+        <v>4.576190062574103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.144205729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>461031.328605142</v>
+        <v>506207.8674751106</v>
       </c>
     </row>
     <row r="4">
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.3339690751275</v>
+        <v>342.7501787155698</v>
       </c>
       <c r="AB4" t="n">
-        <v>419.1396509895004</v>
+        <v>468.9659155893369</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.1375509652565</v>
+        <v>424.2084668032862</v>
       </c>
       <c r="AD4" t="n">
-        <v>306333.9690751275</v>
+        <v>342750.1787155698</v>
       </c>
       <c r="AE4" t="n">
-        <v>419139.6509895004</v>
+        <v>468965.9155893369</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.807609996489405e-06</v>
+        <v>5.194813566314302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.411783854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>379137.5509652565</v>
+        <v>424208.4668032862</v>
       </c>
     </row>
     <row r="5">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>283.4679433911596</v>
+        <v>307.8592341270672</v>
       </c>
       <c r="AB5" t="n">
-        <v>387.8533458708386</v>
+        <v>421.2265859235092</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.8371668965147</v>
+        <v>381.0253117581951</v>
       </c>
       <c r="AD5" t="n">
-        <v>283467.9433911596</v>
+        <v>307859.2341270671</v>
       </c>
       <c r="AE5" t="n">
-        <v>387853.3458708386</v>
+        <v>421226.5859235092</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.988366637545688e-06</v>
+        <v>5.529260676965244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>350837.1668965147</v>
+        <v>381025.3117581951</v>
       </c>
     </row>
     <row r="6">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.8636299192743</v>
+        <v>295.3650909057372</v>
       </c>
       <c r="AB6" t="n">
-        <v>354.188638712903</v>
+        <v>404.1315479653887</v>
       </c>
       <c r="AC6" t="n">
-        <v>320.3853721410193</v>
+        <v>365.5618002297612</v>
       </c>
       <c r="AD6" t="n">
-        <v>258863.6299192743</v>
+        <v>295365.0909057372</v>
       </c>
       <c r="AE6" t="n">
-        <v>354188.638712903</v>
+        <v>404131.5479653887</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.096204406357675e-06</v>
+        <v>5.728788782751317e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>320385.3721410193</v>
+        <v>365561.8002297612</v>
       </c>
     </row>
     <row r="7">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>250.3143263440934</v>
+        <v>286.8157873305594</v>
       </c>
       <c r="AB7" t="n">
-        <v>342.4911043925243</v>
+        <v>392.434013645176</v>
       </c>
       <c r="AC7" t="n">
-        <v>309.8042340786879</v>
+        <v>354.9806621674771</v>
       </c>
       <c r="AD7" t="n">
-        <v>250314.3263440935</v>
+        <v>286815.7873305595</v>
       </c>
       <c r="AE7" t="n">
-        <v>342491.1043925243</v>
+        <v>392434.013645176</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.176405829223041e-06</v>
+        <v>5.877182412941999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.783528645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>309804.2340786879</v>
+        <v>354980.6621674771</v>
       </c>
     </row>
     <row r="8">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>244.7328358012006</v>
+        <v>281.2342967876665</v>
       </c>
       <c r="AB8" t="n">
-        <v>334.8542627937579</v>
+        <v>384.7971720464056</v>
       </c>
       <c r="AC8" t="n">
-        <v>302.8962419237309</v>
+        <v>348.0726700125189</v>
       </c>
       <c r="AD8" t="n">
-        <v>244732.8358012006</v>
+        <v>281234.2967876665</v>
       </c>
       <c r="AE8" t="n">
-        <v>334854.262793758</v>
+        <v>384797.1720464057</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.227850513738542e-06</v>
+        <v>5.972368548256394e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>302896.2419237309</v>
+        <v>348072.6700125189</v>
       </c>
     </row>
     <row r="9">
@@ -7544,28 +7544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>239.8445361341828</v>
+        <v>276.3459971206487</v>
       </c>
       <c r="AB9" t="n">
-        <v>328.1658755327865</v>
+        <v>378.1087847854309</v>
       </c>
       <c r="AC9" t="n">
-        <v>296.846184955734</v>
+        <v>342.022613044521</v>
       </c>
       <c r="AD9" t="n">
-        <v>239844.5361341828</v>
+        <v>276345.9971206487</v>
       </c>
       <c r="AE9" t="n">
-        <v>328165.8755327865</v>
+        <v>378108.7847854309</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.273319772103423e-06</v>
+        <v>6.056498580739354e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>296846.184955734</v>
+        <v>342022.613044521</v>
       </c>
     </row>
     <row r="10">
@@ -7650,28 +7650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>236.4621526832001</v>
+        <v>260.9386947651311</v>
       </c>
       <c r="AB10" t="n">
-        <v>323.5379492749279</v>
+        <v>357.0278339804041</v>
       </c>
       <c r="AC10" t="n">
-        <v>292.6599414845887</v>
+        <v>322.9535985970257</v>
       </c>
       <c r="AD10" t="n">
-        <v>236462.1526832001</v>
+        <v>260938.694765131</v>
       </c>
       <c r="AE10" t="n">
-        <v>323537.9492749279</v>
+        <v>357027.8339804041</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.305344321629408e-06</v>
+        <v>6.115752381851582e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.597981770833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>292659.9414845887</v>
+        <v>322953.5985970257</v>
       </c>
     </row>
     <row r="11">
@@ -7756,28 +7756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>233.5261666736592</v>
+        <v>258.0027087555869</v>
       </c>
       <c r="AB11" t="n">
-        <v>319.5208036901149</v>
+        <v>353.0106883954176</v>
       </c>
       <c r="AC11" t="n">
-        <v>289.0261866362897</v>
+        <v>319.3198437486773</v>
       </c>
       <c r="AD11" t="n">
-        <v>233526.1666736592</v>
+        <v>258002.7087555869</v>
       </c>
       <c r="AE11" t="n">
-        <v>319520.8036901149</v>
+        <v>353010.6883954176</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.332420471374409e-06</v>
+        <v>6.165850347806526e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.560546875</v>
       </c>
       <c r="AH11" t="n">
-        <v>289026.1866362896</v>
+        <v>319319.8437486773</v>
       </c>
     </row>
     <row r="12">
@@ -7862,28 +7862,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>230.9185542932842</v>
+        <v>255.3950963752118</v>
       </c>
       <c r="AB12" t="n">
-        <v>315.9529533915484</v>
+        <v>349.4428380968512</v>
       </c>
       <c r="AC12" t="n">
-        <v>285.798846962708</v>
+        <v>316.0925040750956</v>
       </c>
       <c r="AD12" t="n">
-        <v>230918.5542932842</v>
+        <v>255395.0963752118</v>
       </c>
       <c r="AE12" t="n">
-        <v>315952.9533915484</v>
+        <v>349442.8380968512</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.353707927035996e-06</v>
+        <v>6.205237714143518e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH12" t="n">
-        <v>285798.8469627079</v>
+        <v>316092.5040750956</v>
       </c>
     </row>
     <row r="13">
@@ -7968,28 +7968,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>228.7737891129293</v>
+        <v>253.2503311948569</v>
       </c>
       <c r="AB13" t="n">
-        <v>313.0183910514265</v>
+        <v>346.5082757567292</v>
       </c>
       <c r="AC13" t="n">
-        <v>283.1443551336421</v>
+        <v>313.4380122460299</v>
       </c>
       <c r="AD13" t="n">
-        <v>228773.7891129293</v>
+        <v>253250.3311948569</v>
       </c>
       <c r="AE13" t="n">
-        <v>313018.3910514265</v>
+        <v>346508.2757567292</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.371167375319841e-06</v>
+        <v>6.23754226460412e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.508463541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>283144.3551336422</v>
+        <v>313438.0122460299</v>
       </c>
     </row>
     <row r="14">
@@ -8074,28 +8074,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>226.4142833941571</v>
+        <v>250.7202332754926</v>
       </c>
       <c r="AB14" t="n">
-        <v>309.7900112329584</v>
+        <v>343.0464841634143</v>
       </c>
       <c r="AC14" t="n">
-        <v>280.2240873539881</v>
+        <v>310.3066091837247</v>
       </c>
       <c r="AD14" t="n">
-        <v>226414.2833941571</v>
+        <v>250720.2332754926</v>
       </c>
       <c r="AE14" t="n">
-        <v>309790.0112329583</v>
+        <v>343046.4841634143</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.390214046174946e-06</v>
+        <v>6.272783592379323e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.482421875</v>
       </c>
       <c r="AH14" t="n">
-        <v>280224.0873539881</v>
+        <v>310306.6091837247</v>
       </c>
     </row>
     <row r="15">
@@ -8180,28 +8180,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>225.1302074647722</v>
+        <v>249.4361573461076</v>
       </c>
       <c r="AB15" t="n">
-        <v>308.0330818969428</v>
+        <v>341.2895548273987</v>
       </c>
       <c r="AC15" t="n">
-        <v>278.6348368879355</v>
+        <v>308.7173587176722</v>
       </c>
       <c r="AD15" t="n">
-        <v>225130.2074647722</v>
+        <v>249436.1573461076</v>
       </c>
       <c r="AE15" t="n">
-        <v>308033.0818969428</v>
+        <v>341289.5548273987</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.397589962829618e-06</v>
+        <v>6.286430969311876e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.47265625</v>
       </c>
       <c r="AH15" t="n">
-        <v>278634.8368879355</v>
+        <v>308717.3587176722</v>
       </c>
     </row>
     <row r="16">
@@ -8286,28 +8286,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>222.151908311502</v>
+        <v>246.4578581928374</v>
       </c>
       <c r="AB16" t="n">
-        <v>303.9580416021553</v>
+        <v>337.2145145326112</v>
       </c>
       <c r="AC16" t="n">
-        <v>274.9487127195262</v>
+        <v>305.0312345492629</v>
       </c>
       <c r="AD16" t="n">
-        <v>222151.908311502</v>
+        <v>246457.8581928374</v>
       </c>
       <c r="AE16" t="n">
-        <v>303958.0416021553</v>
+        <v>337214.5145326112</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.42009117692805e-06</v>
+        <v>6.328064106536504e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.443359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>274948.7127195262</v>
+        <v>305031.2345492629</v>
       </c>
     </row>
     <row r="17">
@@ -8392,28 +8392,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>220.7930410639177</v>
+        <v>245.0989909452532</v>
       </c>
       <c r="AB17" t="n">
-        <v>302.0987794850194</v>
+        <v>335.3552524154753</v>
       </c>
       <c r="AC17" t="n">
-        <v>273.2668959693584</v>
+        <v>303.349417799095</v>
       </c>
       <c r="AD17" t="n">
-        <v>220793.0410639177</v>
+        <v>245098.9909452532</v>
       </c>
       <c r="AE17" t="n">
-        <v>302098.7794850194</v>
+        <v>335355.2524154753</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.428587485985964e-06</v>
+        <v>6.343784502749952e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.431966145833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>273266.8959693584</v>
+        <v>303349.417799095</v>
       </c>
     </row>
     <row r="18">
@@ -8498,28 +8498,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>219.1030424672944</v>
+        <v>243.4089923486299</v>
       </c>
       <c r="AB18" t="n">
-        <v>299.7864488476445</v>
+        <v>333.0429217781004</v>
       </c>
       <c r="AC18" t="n">
-        <v>271.1752509226374</v>
+        <v>301.2577727523741</v>
       </c>
       <c r="AD18" t="n">
-        <v>219103.0424672944</v>
+        <v>243408.9923486299</v>
       </c>
       <c r="AE18" t="n">
-        <v>299786.4488476445</v>
+        <v>333042.9217781004</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.438764383648741e-06</v>
+        <v>6.362614427884741e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.4189453125</v>
       </c>
       <c r="AH18" t="n">
-        <v>271175.2509226374</v>
+        <v>301257.7727523741</v>
       </c>
     </row>
     <row r="19">
@@ -8604,28 +8604,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>218.2269819491923</v>
+        <v>242.5329318305278</v>
       </c>
       <c r="AB19" t="n">
-        <v>298.5877841977155</v>
+        <v>331.8442571281714</v>
       </c>
       <c r="AC19" t="n">
-        <v>270.0909851445608</v>
+        <v>300.1735069742975</v>
       </c>
       <c r="AD19" t="n">
-        <v>218226.9819491923</v>
+        <v>242532.9318305278</v>
       </c>
       <c r="AE19" t="n">
-        <v>298587.7841977155</v>
+        <v>331844.2571281714</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.439698043984775e-06</v>
+        <v>6.364341943952153e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.417317708333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>270090.9851445608</v>
+        <v>300173.5069742975</v>
       </c>
     </row>
     <row r="20">
@@ -8710,28 +8710,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>217.625833981614</v>
+        <v>241.9317838629494</v>
       </c>
       <c r="AB20" t="n">
-        <v>297.7652670276987</v>
+        <v>331.0217399581545</v>
       </c>
       <c r="AC20" t="n">
-        <v>269.3469678588399</v>
+        <v>299.4294896885767</v>
       </c>
       <c r="AD20" t="n">
-        <v>217625.833981614</v>
+        <v>241931.7838629494</v>
       </c>
       <c r="AE20" t="n">
-        <v>297765.2670276986</v>
+        <v>331021.7399581545</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.446513764437827e-06</v>
+        <v>6.376952811244259e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.4091796875</v>
       </c>
       <c r="AH20" t="n">
-        <v>269346.96785884</v>
+        <v>299429.4896885767</v>
       </c>
     </row>
     <row r="21">
@@ -8816,28 +8816,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>215.5498188666432</v>
+        <v>239.8557687479786</v>
       </c>
       <c r="AB21" t="n">
-        <v>294.924771560074</v>
+        <v>328.1812444905299</v>
       </c>
       <c r="AC21" t="n">
-        <v>266.7775652919842</v>
+        <v>296.8600871217208</v>
       </c>
       <c r="AD21" t="n">
-        <v>215549.8188666432</v>
+        <v>239855.7687479786</v>
       </c>
       <c r="AE21" t="n">
-        <v>294924.771560074</v>
+        <v>328181.2444905299</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.457624322436638e-06</v>
+        <v>6.397510252446461e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH21" t="n">
-        <v>266777.5652919842</v>
+        <v>296860.0871217208</v>
       </c>
     </row>
     <row r="22">
@@ -8922,28 +8922,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>214.6919531068326</v>
+        <v>238.9979029881681</v>
       </c>
       <c r="AB22" t="n">
-        <v>293.7510017811355</v>
+        <v>327.0074747115914</v>
       </c>
       <c r="AC22" t="n">
-        <v>265.7158184533509</v>
+        <v>295.7983402830876</v>
       </c>
       <c r="AD22" t="n">
-        <v>214691.9531068326</v>
+        <v>238997.9029881681</v>
       </c>
       <c r="AE22" t="n">
-        <v>293751.0017811355</v>
+        <v>327007.4747115914</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.456223831932586e-06</v>
+        <v>6.394918978345343e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.396158854166667</v>
       </c>
       <c r="AH22" t="n">
-        <v>265715.8184533509</v>
+        <v>295798.3402830876</v>
       </c>
     </row>
     <row r="23">
@@ -9028,28 +9028,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>213.3974418889293</v>
+        <v>237.7033917702648</v>
       </c>
       <c r="AB23" t="n">
-        <v>291.9797944229968</v>
+        <v>325.2362673534527</v>
       </c>
       <c r="AC23" t="n">
-        <v>264.1136526395672</v>
+        <v>294.1961744693039</v>
       </c>
       <c r="AD23" t="n">
-        <v>213397.4418889293</v>
+        <v>237703.3917702648</v>
       </c>
       <c r="AE23" t="n">
-        <v>291979.7944229968</v>
+        <v>325236.2673534527</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.466960925796983e-06</v>
+        <v>6.41478541312058e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.383138020833333</v>
       </c>
       <c r="AH23" t="n">
-        <v>264113.6526395673</v>
+        <v>294196.1744693039</v>
       </c>
     </row>
     <row r="24">
@@ -9134,28 +9134,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>212.2183242447649</v>
+        <v>236.5242741261004</v>
       </c>
       <c r="AB24" t="n">
-        <v>290.3664736432528</v>
+        <v>323.6229465737086</v>
       </c>
       <c r="AC24" t="n">
-        <v>262.6543049307315</v>
+        <v>292.7368267604682</v>
       </c>
       <c r="AD24" t="n">
-        <v>212218.3242447649</v>
+        <v>236524.2741261004</v>
       </c>
       <c r="AE24" t="n">
-        <v>290366.4736432528</v>
+        <v>323622.9465737087</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.465840533393741e-06</v>
+        <v>6.412712393839686e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.384765625</v>
       </c>
       <c r="AH24" t="n">
-        <v>262654.3049307315</v>
+        <v>292736.8267604682</v>
       </c>
     </row>
     <row r="25">
@@ -9240,28 +9240,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>210.4694580556452</v>
+        <v>234.7754079369807</v>
       </c>
       <c r="AB25" t="n">
-        <v>287.9735977687695</v>
+        <v>321.2300706992254</v>
       </c>
       <c r="AC25" t="n">
-        <v>260.4898017712858</v>
+        <v>290.5723236010225</v>
       </c>
       <c r="AD25" t="n">
-        <v>210469.4580556453</v>
+        <v>234775.4079369807</v>
       </c>
       <c r="AE25" t="n">
-        <v>287973.5977687695</v>
+        <v>321230.0706992254</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.477324555526966e-06</v>
+        <v>6.433960841468852e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.3701171875</v>
       </c>
       <c r="AH25" t="n">
-        <v>260489.8017712858</v>
+        <v>290572.3236010225</v>
       </c>
     </row>
     <row r="26">
@@ -9346,28 +9346,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>209.8850838614663</v>
+        <v>234.1910337428017</v>
       </c>
       <c r="AB26" t="n">
-        <v>287.1740312155242</v>
+        <v>320.4305041459802</v>
       </c>
       <c r="AC26" t="n">
-        <v>259.7665447276834</v>
+        <v>289.8490665574201</v>
       </c>
       <c r="AD26" t="n">
-        <v>209885.0838614663</v>
+        <v>234191.0337428018</v>
       </c>
       <c r="AE26" t="n">
-        <v>287174.0312155242</v>
+        <v>320430.5041459802</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.4755506008885e-06</v>
+        <v>6.430678560940769e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.371744791666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>259766.5447276834</v>
+        <v>289849.0665574201</v>
       </c>
     </row>
     <row r="27">
@@ -9452,28 +9452,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>208.4451362371175</v>
+        <v>232.7510861184529</v>
       </c>
       <c r="AB27" t="n">
-        <v>285.2038313498855</v>
+        <v>318.4603042803413</v>
       </c>
       <c r="AC27" t="n">
-        <v>257.9843779720276</v>
+        <v>288.0668998017643</v>
       </c>
       <c r="AD27" t="n">
-        <v>208445.1362371175</v>
+        <v>232751.0861184529</v>
       </c>
       <c r="AE27" t="n">
-        <v>285203.8313498855</v>
+        <v>318460.3042803414</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.484887204248846e-06</v>
+        <v>6.447953721614888e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.3603515625</v>
       </c>
       <c r="AH27" t="n">
-        <v>257984.3779720276</v>
+        <v>288066.8998017643</v>
       </c>
     </row>
     <row r="28">
@@ -9558,28 +9558,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>208.977997223362</v>
+        <v>233.2839471046975</v>
       </c>
       <c r="AB28" t="n">
-        <v>285.9329152594325</v>
+        <v>319.1893881898883</v>
       </c>
       <c r="AC28" t="n">
-        <v>258.6438791365234</v>
+        <v>288.72640096626</v>
       </c>
       <c r="AD28" t="n">
-        <v>208977.997223362</v>
+        <v>233283.9471046975</v>
       </c>
       <c r="AE28" t="n">
-        <v>285932.9152594325</v>
+        <v>319189.3881898883</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.484327008047225e-06</v>
+        <v>6.446917211974441e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>258643.8791365234</v>
+        <v>288726.4009662601</v>
       </c>
     </row>
   </sheetData>
@@ -9855,28 +9855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.2137528891129</v>
+        <v>578.1833500739613</v>
       </c>
       <c r="AB2" t="n">
-        <v>726.8300921996681</v>
+        <v>791.0959672203603</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.4624483125723</v>
+        <v>715.5948784190118</v>
       </c>
       <c r="AD2" t="n">
-        <v>531213.7528891129</v>
+        <v>578183.3500739613</v>
       </c>
       <c r="AE2" t="n">
-        <v>726830.0921996682</v>
+        <v>791095.9672203603</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.927950261533773e-06</v>
+        <v>3.674970743671666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.154296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>657462.4483125723</v>
+        <v>715594.8784190118</v>
       </c>
     </row>
     <row r="3">
@@ -9961,28 +9961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.9548996229703</v>
+        <v>335.2460360211219</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.4115267403767</v>
+        <v>458.6984164953828</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.2424266444698</v>
+        <v>414.9208834123336</v>
       </c>
       <c r="AD3" t="n">
-        <v>299954.8996229703</v>
+        <v>335246.0360211219</v>
       </c>
       <c r="AE3" t="n">
-        <v>410411.5267403767</v>
+        <v>458698.4164953828</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.759651063200389e-06</v>
+        <v>5.260320830027897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.696614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>371242.4266444698</v>
+        <v>414920.8834123336</v>
       </c>
     </row>
     <row r="4">
@@ -10067,28 +10067,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.5752645093261</v>
+        <v>286.1027782833116</v>
       </c>
       <c r="AB4" t="n">
-        <v>359.2670609047733</v>
+        <v>391.4584432109924</v>
       </c>
       <c r="AC4" t="n">
-        <v>324.9791168465078</v>
+        <v>354.0981988063102</v>
       </c>
       <c r="AD4" t="n">
-        <v>262575.2645093261</v>
+        <v>286102.7782833116</v>
       </c>
       <c r="AE4" t="n">
-        <v>359267.0609047733</v>
+        <v>391458.4432109924</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.064476023142305e-06</v>
+        <v>5.841364248044417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>324979.1168465078</v>
+        <v>354098.1988063102</v>
       </c>
     </row>
     <row r="5">
@@ -10173,28 +10173,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>234.4461140157674</v>
+        <v>269.6519095593503</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.7795162287989</v>
+        <v>368.949638861762</v>
       </c>
       <c r="AC5" t="n">
-        <v>290.1647694168962</v>
+        <v>333.7376031528651</v>
       </c>
       <c r="AD5" t="n">
-        <v>234446.1140157674</v>
+        <v>269651.9095593503</v>
       </c>
       <c r="AE5" t="n">
-        <v>320779.5162287989</v>
+        <v>368949.638861762</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.223456341286916e-06</v>
+        <v>6.14440527024188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.876302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>290164.7694168962</v>
+        <v>333737.6031528651</v>
       </c>
     </row>
     <row r="6">
@@ -10279,28 +10279,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>224.554659740944</v>
+        <v>259.7604552845269</v>
       </c>
       <c r="AB6" t="n">
-        <v>307.245592109828</v>
+        <v>355.4157147427842</v>
       </c>
       <c r="AC6" t="n">
-        <v>277.9225040208538</v>
+        <v>321.4953377568207</v>
       </c>
       <c r="AD6" t="n">
-        <v>224554.659740944</v>
+        <v>259760.4552845269</v>
       </c>
       <c r="AE6" t="n">
-        <v>307245.592109828</v>
+        <v>355415.7147427842</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.326610034955473e-06</v>
+        <v>6.341032130331122e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.724934895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>277922.5040208538</v>
+        <v>321495.3377568207</v>
       </c>
     </row>
     <row r="7">
@@ -10385,28 +10385,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>218.3679994214357</v>
+        <v>253.5737949650153</v>
       </c>
       <c r="AB7" t="n">
-        <v>298.7807305244905</v>
+        <v>346.9508531572741</v>
       </c>
       <c r="AC7" t="n">
-        <v>270.2655169447104</v>
+        <v>313.8383506806281</v>
       </c>
       <c r="AD7" t="n">
-        <v>218367.9994214357</v>
+        <v>253573.7949650153</v>
       </c>
       <c r="AE7" t="n">
-        <v>298780.7305244905</v>
+        <v>346950.8531572741</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.391708901559038e-06</v>
+        <v>6.465120616941747e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>270265.5169447104</v>
+        <v>313838.3506806282</v>
       </c>
     </row>
     <row r="8">
@@ -10491,28 +10491,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>213.4240616322397</v>
+        <v>237.0368267522455</v>
       </c>
       <c r="AB8" t="n">
-        <v>292.0162167301743</v>
+        <v>324.324243689026</v>
       </c>
       <c r="AC8" t="n">
-        <v>264.1465988528667</v>
+        <v>293.3711930633766</v>
       </c>
       <c r="AD8" t="n">
-        <v>213424.0616322397</v>
+        <v>237036.8267522455</v>
       </c>
       <c r="AE8" t="n">
-        <v>292016.2167301743</v>
+        <v>324324.243689026</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.442416475693863e-06</v>
+        <v>6.561777079064267e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.567057291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>264146.5988528667</v>
+        <v>293371.1930633766</v>
       </c>
     </row>
     <row r="9">
@@ -10597,28 +10597,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>209.936449524728</v>
+        <v>233.5492146447338</v>
       </c>
       <c r="AB9" t="n">
-        <v>287.2443119820921</v>
+        <v>319.5523389409438</v>
       </c>
       <c r="AC9" t="n">
-        <v>259.8301179965296</v>
+        <v>289.0547122070395</v>
       </c>
       <c r="AD9" t="n">
-        <v>209936.449524728</v>
+        <v>233549.2146447338</v>
       </c>
       <c r="AE9" t="n">
-        <v>287244.3119820921</v>
+        <v>319552.3389409438</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.476897626105544e-06</v>
+        <v>6.627503473307581e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.521484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>259830.1179965296</v>
+        <v>289054.7122070395</v>
       </c>
     </row>
     <row r="10">
@@ -10703,28 +10703,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>206.8975950785423</v>
+        <v>230.3397679979559</v>
       </c>
       <c r="AB10" t="n">
-        <v>283.0864172640265</v>
+        <v>315.1610324480313</v>
       </c>
       <c r="AC10" t="n">
-        <v>256.069046914713</v>
+        <v>285.0825058425718</v>
       </c>
       <c r="AD10" t="n">
-        <v>206897.5950785423</v>
+        <v>230339.7679979559</v>
       </c>
       <c r="AE10" t="n">
-        <v>283086.4172640265</v>
+        <v>315161.0324480314</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.503265564655652e-06</v>
+        <v>6.677764833611291e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.4873046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>256069.046914713</v>
+        <v>285082.5058425718</v>
       </c>
     </row>
     <row r="11">
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>203.9432207402263</v>
+        <v>227.3853936596399</v>
       </c>
       <c r="AB11" t="n">
-        <v>279.0441119565476</v>
+        <v>311.1187271405525</v>
       </c>
       <c r="AC11" t="n">
-        <v>252.4125335523675</v>
+        <v>281.4259924802263</v>
       </c>
       <c r="AD11" t="n">
-        <v>203943.2207402263</v>
+        <v>227385.3936596399</v>
       </c>
       <c r="AE11" t="n">
-        <v>279044.1119565476</v>
+        <v>311118.7271405525</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.529343745639277e-06</v>
+        <v>6.727473871274302e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.454752604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>252412.5335523675</v>
+        <v>281425.9924802263</v>
       </c>
     </row>
     <row r="12">
@@ -10915,28 +10915,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>201.666129590676</v>
+        <v>225.1083025100896</v>
       </c>
       <c r="AB12" t="n">
-        <v>275.9284953875628</v>
+        <v>308.0031105715677</v>
       </c>
       <c r="AC12" t="n">
-        <v>249.5942670559303</v>
+        <v>278.6077259837891</v>
       </c>
       <c r="AD12" t="n">
-        <v>201666.129590676</v>
+        <v>225108.3025100896</v>
       </c>
       <c r="AE12" t="n">
-        <v>275928.4953875628</v>
+        <v>308003.1105715677</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.547791644038803e-06</v>
+        <v>6.762638412732209e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.430338541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>249594.2670559303</v>
+        <v>278607.7259837891</v>
       </c>
     </row>
     <row r="13">
@@ -11021,28 +11021,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>200.2000376171192</v>
+        <v>223.6422105365328</v>
       </c>
       <c r="AB13" t="n">
-        <v>273.9225236699303</v>
+        <v>305.9971388539352</v>
       </c>
       <c r="AC13" t="n">
-        <v>247.779742463629</v>
+        <v>276.7932013914879</v>
       </c>
       <c r="AD13" t="n">
-        <v>200200.0376171192</v>
+        <v>223642.2105365327</v>
       </c>
       <c r="AE13" t="n">
-        <v>273922.5236699303</v>
+        <v>305997.1388539352</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.553490209513002e-06</v>
+        <v>6.773500757999312e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.423828125</v>
       </c>
       <c r="AH13" t="n">
-        <v>247779.742463629</v>
+        <v>276793.2013914879</v>
       </c>
     </row>
     <row r="14">
@@ -11127,28 +11127,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>197.3131849930636</v>
+        <v>220.7553579124771</v>
       </c>
       <c r="AB14" t="n">
-        <v>269.9726045507502</v>
+        <v>302.0472197347551</v>
       </c>
       <c r="AC14" t="n">
-        <v>244.2067980814359</v>
+        <v>273.2202570092948</v>
       </c>
       <c r="AD14" t="n">
-        <v>197313.1849930636</v>
+        <v>220755.3579124771</v>
       </c>
       <c r="AE14" t="n">
-        <v>269972.6045507502</v>
+        <v>302047.2197347551</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.57609129969881e-06</v>
+        <v>6.816581923973921e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.396158854166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>244206.7980814359</v>
+        <v>273220.2570092948</v>
       </c>
     </row>
     <row r="15">
@@ -11233,28 +11233,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>195.7795327598038</v>
+        <v>219.2217056792174</v>
       </c>
       <c r="AB15" t="n">
-        <v>267.8741939052439</v>
+        <v>299.9488090892489</v>
       </c>
       <c r="AC15" t="n">
-        <v>242.3086568027983</v>
+        <v>271.3221157306571</v>
       </c>
       <c r="AD15" t="n">
-        <v>195779.5327598038</v>
+        <v>219221.7056792174</v>
       </c>
       <c r="AE15" t="n">
-        <v>267874.1939052439</v>
+        <v>299948.8090892489</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.584687440837856e-06</v>
+        <v>6.832967495648023e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.384765625</v>
       </c>
       <c r="AH15" t="n">
-        <v>242308.6568027983</v>
+        <v>271322.1157306571</v>
       </c>
     </row>
     <row r="16">
@@ -11339,28 +11339,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>193.9051768130967</v>
+        <v>217.3473497325103</v>
       </c>
       <c r="AB16" t="n">
-        <v>265.3096174082122</v>
+        <v>297.3842325922171</v>
       </c>
       <c r="AC16" t="n">
-        <v>239.9888398872367</v>
+        <v>269.0022988150956</v>
       </c>
       <c r="AD16" t="n">
-        <v>193905.1768130967</v>
+        <v>217347.3497325103</v>
       </c>
       <c r="AE16" t="n">
-        <v>265309.6174082122</v>
+        <v>297384.2325922172</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.59560164250878e-06</v>
+        <v>6.853771648447728e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.371744791666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>239988.8398872367</v>
+        <v>269002.2988150956</v>
       </c>
     </row>
     <row r="17">
@@ -11445,28 +11445,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>192.6055004716264</v>
+        <v>216.04767339104</v>
       </c>
       <c r="AB17" t="n">
-        <v>263.53134290014</v>
+        <v>295.6059580841448</v>
       </c>
       <c r="AC17" t="n">
-        <v>238.3802814023904</v>
+        <v>267.3937403302492</v>
       </c>
       <c r="AD17" t="n">
-        <v>192605.5004716264</v>
+        <v>216047.67339104</v>
       </c>
       <c r="AE17" t="n">
-        <v>263531.34290014</v>
+        <v>295605.9580841449</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.601010450416495e-06</v>
+        <v>6.864081671074131e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.365234375</v>
       </c>
       <c r="AH17" t="n">
-        <v>238380.2814023904</v>
+        <v>267393.7403302492</v>
       </c>
     </row>
     <row r="18">
@@ -11551,28 +11551,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>190.3497045082848</v>
+        <v>213.7918774276984</v>
       </c>
       <c r="AB18" t="n">
-        <v>260.4448633444033</v>
+        <v>292.5194785284082</v>
       </c>
       <c r="AC18" t="n">
-        <v>235.588371123551</v>
+        <v>264.6018300514098</v>
       </c>
       <c r="AD18" t="n">
-        <v>190349.7045082848</v>
+        <v>213791.8774276984</v>
       </c>
       <c r="AE18" t="n">
-        <v>260444.8633444033</v>
+        <v>292519.4785284082</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.612310995509399e-06</v>
+        <v>6.885622254061435e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.352213541666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>235588.371123551</v>
+        <v>264601.8300514098</v>
       </c>
     </row>
     <row r="19">
@@ -11657,28 +11657,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>188.3521047730531</v>
+        <v>211.7942776924667</v>
       </c>
       <c r="AB19" t="n">
-        <v>257.7116592587801</v>
+        <v>289.7862744427849</v>
       </c>
       <c r="AC19" t="n">
-        <v>233.1160201997828</v>
+        <v>262.1294791276416</v>
       </c>
       <c r="AD19" t="n">
-        <v>188352.1047730531</v>
+        <v>211794.2776924667</v>
       </c>
       <c r="AE19" t="n">
-        <v>257711.6592587801</v>
+        <v>289786.274442785</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.622549096191858e-06</v>
+        <v>6.905137654032838e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.339192708333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>233116.0201997827</v>
+        <v>262129.4791276415</v>
       </c>
     </row>
     <row r="20">
@@ -11763,28 +11763,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>188.8582175597765</v>
+        <v>212.3003904791901</v>
       </c>
       <c r="AB20" t="n">
-        <v>258.404145101695</v>
+        <v>290.4787602856999</v>
       </c>
       <c r="AC20" t="n">
-        <v>233.7424161657601</v>
+        <v>262.7558750936189</v>
       </c>
       <c r="AD20" t="n">
-        <v>188858.2175597765</v>
+        <v>212300.3904791901</v>
       </c>
       <c r="AE20" t="n">
-        <v>258404.145101695</v>
+        <v>290478.7602856999</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.62119689421493e-06</v>
+        <v>6.902560148376239e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.3408203125</v>
       </c>
       <c r="AH20" t="n">
-        <v>233742.41616576</v>
+        <v>262755.8750936189</v>
       </c>
     </row>
     <row r="21">
@@ -11869,28 +11869,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>189.537441817122</v>
+        <v>212.9796147365355</v>
       </c>
       <c r="AB21" t="n">
-        <v>259.333489695854</v>
+        <v>291.4081048798589</v>
       </c>
       <c r="AC21" t="n">
-        <v>234.5830654161961</v>
+        <v>263.596524344055</v>
       </c>
       <c r="AD21" t="n">
-        <v>189537.441817122</v>
+        <v>212979.6147365355</v>
       </c>
       <c r="AE21" t="n">
-        <v>259333.489695854</v>
+        <v>291408.1048798589</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.620907136648445e-06</v>
+        <v>6.902007825735538e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.3408203125</v>
       </c>
       <c r="AH21" t="n">
-        <v>234583.0654161961</v>
+        <v>263596.524344055</v>
       </c>
     </row>
   </sheetData>
@@ -12166,28 +12166,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.1758463182743</v>
+        <v>255.5661737918465</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.7272828728628</v>
+        <v>349.6769137656935</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.4536614900128</v>
+        <v>316.304239890631</v>
       </c>
       <c r="AD2" t="n">
-        <v>224175.8463182743</v>
+        <v>255566.1737918465</v>
       </c>
       <c r="AE2" t="n">
-        <v>306727.2828728628</v>
+        <v>349676.9137656935</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.062016672201198e-06</v>
+        <v>6.521294173040657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>277453.6614900128</v>
+        <v>316304.2398906311</v>
       </c>
     </row>
     <row r="3">
@@ -12272,28 +12272,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.1216407460266</v>
+        <v>199.4266273650271</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.0314458719332</v>
+        <v>272.8643096425664</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.0775675291443</v>
+        <v>246.8225228978237</v>
       </c>
       <c r="AD3" t="n">
-        <v>168121.6407460266</v>
+        <v>199426.6273650271</v>
       </c>
       <c r="AE3" t="n">
-        <v>230031.4458719332</v>
+        <v>272864.3096425664</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.647993394131363e-06</v>
+        <v>7.769271238924365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.807942708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>208077.5675291443</v>
+        <v>246822.5228978237</v>
       </c>
     </row>
     <row r="4">
@@ -12378,28 +12378,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.016525435512</v>
+        <v>176.0287512724651</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.100448947213</v>
+        <v>240.8503033312978</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.8578797846014</v>
+        <v>217.8638884169523</v>
       </c>
       <c r="AD4" t="n">
-        <v>155016.525435512</v>
+        <v>176028.7512724651</v>
       </c>
       <c r="AE4" t="n">
-        <v>212100.448947213</v>
+        <v>240850.3033312978</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.849426260286868e-06</v>
+        <v>8.19827052826346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>191857.8797846014</v>
+        <v>217863.8884169523</v>
       </c>
     </row>
     <row r="5">
@@ -12484,28 +12484,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.7640096919698</v>
+        <v>168.6056433283307</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.1772369484905</v>
+        <v>230.6936795577284</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.8817252117182</v>
+        <v>208.6765985614182</v>
       </c>
       <c r="AD5" t="n">
-        <v>147764.0096919698</v>
+        <v>168605.6433283307</v>
       </c>
       <c r="AE5" t="n">
-        <v>202177.2369484905</v>
+        <v>230693.6795577284</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.951705441657426e-06</v>
+        <v>8.41609841782087e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.4384765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>182881.7252117182</v>
+        <v>208676.5985614182</v>
       </c>
     </row>
     <row r="6">
@@ -12590,28 +12590,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.4469938070475</v>
+        <v>163.2886274434084</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.9022612445577</v>
+        <v>223.4187038537956</v>
       </c>
       <c r="AC6" t="n">
-        <v>176.301062978474</v>
+        <v>202.0959363281739</v>
       </c>
       <c r="AD6" t="n">
-        <v>142446.9938070475</v>
+        <v>163288.6274434084</v>
       </c>
       <c r="AE6" t="n">
-        <v>194902.2612445577</v>
+        <v>223418.7038537957</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.013676494648018e-06</v>
+        <v>8.548080542684423e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.3701171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>176301.062978474</v>
+        <v>202095.9363281739</v>
       </c>
     </row>
     <row r="7">
@@ -12696,28 +12696,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>141.6146573537484</v>
+        <v>162.4562909901094</v>
       </c>
       <c r="AB7" t="n">
-        <v>193.7634217890617</v>
+        <v>222.2798643982997</v>
       </c>
       <c r="AC7" t="n">
-        <v>175.2709127622389</v>
+        <v>201.0657861119389</v>
       </c>
       <c r="AD7" t="n">
-        <v>141614.6573537484</v>
+        <v>162456.2909901094</v>
       </c>
       <c r="AE7" t="n">
-        <v>193763.4217890617</v>
+        <v>222279.8643982997</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.019819712074911e-06</v>
+        <v>8.561163988105679e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.363606770833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>175270.9127622389</v>
+        <v>201065.7861119389</v>
       </c>
     </row>
   </sheetData>
@@ -12993,28 +12993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.370063027054</v>
+        <v>342.2001998196345</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.2937686775383</v>
+        <v>468.2134102005618</v>
       </c>
       <c r="AC2" t="n">
-        <v>382.8952054914889</v>
+        <v>423.5277794726678</v>
       </c>
       <c r="AD2" t="n">
-        <v>309370.063027054</v>
+        <v>342200.1998196345</v>
       </c>
       <c r="AE2" t="n">
-        <v>423293.7686775383</v>
+        <v>468213.4102005618</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608057027738811e-06</v>
+        <v>5.29525745420124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.433919270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>382895.2054914889</v>
+        <v>423527.7794726678</v>
       </c>
     </row>
     <row r="3">
@@ -13099,28 +13099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.9044721981452</v>
+        <v>240.8481537990966</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.5147562450926</v>
+        <v>329.5390694984073</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.92948828075</v>
+        <v>298.0883232165663</v>
       </c>
       <c r="AD3" t="n">
-        <v>218904.4721981451</v>
+        <v>240848.1537990966</v>
       </c>
       <c r="AE3" t="n">
-        <v>299514.7562450926</v>
+        <v>329539.0694984074</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293812603603244e-06</v>
+        <v>6.687578360621183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.094401041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>270929.48828075</v>
+        <v>298088.3232165663</v>
       </c>
     </row>
     <row r="4">
@@ -13205,28 +13205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.454267448427</v>
+        <v>221.284314732456</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.8514427383258</v>
+        <v>302.7709617917778</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.242462940228</v>
+        <v>273.8749261401738</v>
       </c>
       <c r="AD4" t="n">
-        <v>188454.267448427</v>
+        <v>221284.314732456</v>
       </c>
       <c r="AE4" t="n">
-        <v>257851.4427383258</v>
+        <v>302770.9617917778</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.537657429481966e-06</v>
+        <v>7.182667662031973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.744466145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>233242.462940228</v>
+        <v>273874.9261401738</v>
       </c>
     </row>
     <row r="5">
@@ -13311,28 +13311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.7128854177074</v>
+        <v>200.7418183646794</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.5228540844575</v>
+        <v>274.6638119904216</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.185936080689</v>
+        <v>248.4502832672175</v>
       </c>
       <c r="AD5" t="n">
-        <v>178712.8854177074</v>
+        <v>200741.8183646794</v>
       </c>
       <c r="AE5" t="n">
-        <v>244522.8540844576</v>
+        <v>274663.8119904216</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.665095993873552e-06</v>
+        <v>7.441412007293595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.578450520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>221185.936080689</v>
+        <v>248450.2832672175</v>
       </c>
     </row>
     <row r="6">
@@ -13417,28 +13417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.9508486510283</v>
+        <v>194.8091893974081</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.6389811771697</v>
+        <v>266.5465273082868</v>
       </c>
       <c r="AC6" t="n">
-        <v>214.0544889385851</v>
+        <v>241.1077008424626</v>
       </c>
       <c r="AD6" t="n">
-        <v>172950.8486510282</v>
+        <v>194809.1893974081</v>
       </c>
       <c r="AE6" t="n">
-        <v>236638.9811771697</v>
+        <v>266546.5273082869</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.735723353588953e-06</v>
+        <v>7.584809965630335e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.4921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>214054.4889385851</v>
+        <v>241107.7008424626</v>
       </c>
     </row>
     <row r="7">
@@ -13523,28 +13523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>168.0482971740921</v>
+        <v>189.906637920472</v>
       </c>
       <c r="AB7" t="n">
-        <v>229.9310939611226</v>
+        <v>259.8386400922398</v>
       </c>
       <c r="AC7" t="n">
-        <v>207.9867930638566</v>
+        <v>235.040004967734</v>
       </c>
       <c r="AD7" t="n">
-        <v>168048.2971740921</v>
+        <v>189906.637920472</v>
       </c>
       <c r="AE7" t="n">
-        <v>229931.0939611226</v>
+        <v>259838.6400922398</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.789956917399613e-06</v>
+        <v>7.694922850426139e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>207986.7930638566</v>
+        <v>235040.004967734</v>
       </c>
     </row>
     <row r="8">
@@ -13629,28 +13629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>163.9105502856303</v>
+        <v>185.7688910320101</v>
       </c>
       <c r="AB8" t="n">
-        <v>224.2696461238226</v>
+        <v>254.1771922549398</v>
       </c>
       <c r="AC8" t="n">
-        <v>202.8656658622547</v>
+        <v>229.9188777661322</v>
       </c>
       <c r="AD8" t="n">
-        <v>163910.5502856303</v>
+        <v>185768.8910320101</v>
       </c>
       <c r="AE8" t="n">
-        <v>224269.6461238225</v>
+        <v>254177.1922549398</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.830580537440296e-06</v>
+        <v>7.77740284398041e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>202865.6658622547</v>
+        <v>229918.8777661322</v>
       </c>
     </row>
     <row r="9">
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>160.8797876886103</v>
+        <v>182.7381284349901</v>
       </c>
       <c r="AB9" t="n">
-        <v>220.1228230307727</v>
+        <v>250.03036916189</v>
       </c>
       <c r="AC9" t="n">
-        <v>199.1146097451015</v>
+        <v>226.167821648979</v>
       </c>
       <c r="AD9" t="n">
-        <v>160879.7876886103</v>
+        <v>182738.1284349901</v>
       </c>
       <c r="AE9" t="n">
-        <v>220122.8230307727</v>
+        <v>250030.3691618899</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.853985516499268e-06</v>
+        <v>7.824923043312438e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.353841145833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>199114.6097451015</v>
+        <v>226167.821648979</v>
       </c>
     </row>
     <row r="10">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>158.5240085497996</v>
+        <v>180.3823492961795</v>
       </c>
       <c r="AB10" t="n">
-        <v>216.899542083413</v>
+        <v>246.8070882145302</v>
       </c>
       <c r="AC10" t="n">
-        <v>196.1989542074535</v>
+        <v>223.252166111331</v>
       </c>
       <c r="AD10" t="n">
-        <v>158524.0085497996</v>
+        <v>180382.3492961795</v>
       </c>
       <c r="AE10" t="n">
-        <v>216899.542083413</v>
+        <v>246807.0882145301</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.869657572961665e-06</v>
+        <v>7.856742736257233e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>196198.9542074535</v>
+        <v>223252.166111331</v>
       </c>
     </row>
     <row r="11">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>159.0315315623749</v>
+        <v>180.8898723087547</v>
       </c>
       <c r="AB11" t="n">
-        <v>217.5939574595531</v>
+        <v>247.5015035906703</v>
       </c>
       <c r="AC11" t="n">
-        <v>196.8270955547132</v>
+        <v>223.8803074585906</v>
       </c>
       <c r="AD11" t="n">
-        <v>159031.5315623749</v>
+        <v>180889.8723087547</v>
       </c>
       <c r="AE11" t="n">
-        <v>217593.9574595531</v>
+        <v>247501.5035906703</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.86924515042318e-06</v>
+        <v>7.85590537591658e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.337565104166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>196827.0955547132</v>
+        <v>223880.3074585906</v>
       </c>
     </row>
   </sheetData>
@@ -14244,28 +14244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.9738700918218</v>
+        <v>198.0669361943595</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.5117007125262</v>
+        <v>271.0039201975189</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.2712857674118</v>
+        <v>245.139686410338</v>
       </c>
       <c r="AD2" t="n">
-        <v>177973.8700918218</v>
+        <v>198066.9361943595</v>
       </c>
       <c r="AE2" t="n">
-        <v>243511.7007125262</v>
+        <v>271003.9201975189</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.454848435027338e-06</v>
+        <v>7.693272649848158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>220271.2857674118</v>
+        <v>245139.686410338</v>
       </c>
     </row>
     <row r="3">
@@ -14350,28 +14350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.0379578202027</v>
+        <v>159.216275268761</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.2378678113056</v>
+        <v>217.8467319489476</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.0818327079727</v>
+        <v>197.0557456016112</v>
       </c>
       <c r="AD3" t="n">
-        <v>139037.9578202027</v>
+        <v>159216.275268761</v>
       </c>
       <c r="AE3" t="n">
-        <v>190237.8678113057</v>
+        <v>217846.7319489477</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.954410675932149e-06</v>
+        <v>8.805700183827498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.607747395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>172081.8327079727</v>
+        <v>197055.7456016112</v>
       </c>
     </row>
     <row r="4">
@@ -14456,28 +14456,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.0204714063188</v>
+        <v>149.028196654285</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.5315009595267</v>
+        <v>203.9069533223218</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.6835822715164</v>
+        <v>184.4463598825039</v>
       </c>
       <c r="AD4" t="n">
-        <v>129020.4714063188</v>
+        <v>149028.196654285</v>
       </c>
       <c r="AE4" t="n">
-        <v>176531.5009595267</v>
+        <v>203906.9533223218</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.116491367133173e-06</v>
+        <v>9.166622224876588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.425455729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>159683.5822715164</v>
+        <v>184446.3598825039</v>
       </c>
     </row>
     <row r="5">
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.1780916515371</v>
+        <v>148.1858168995033</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.378919815863</v>
+        <v>202.7543721786581</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.6410018545458</v>
+        <v>183.4037794655332</v>
       </c>
       <c r="AD5" t="n">
-        <v>128178.0916515371</v>
+        <v>148185.8168995033</v>
       </c>
       <c r="AE5" t="n">
-        <v>175378.919815863</v>
+        <v>202754.3721786581</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.138430466218394e-06</v>
+        <v>9.215476313305882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.402669270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>158641.0018545458</v>
+        <v>183403.7794655332</v>
       </c>
     </row>
   </sheetData>
@@ -14859,28 +14859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.6412271962793</v>
+        <v>622.0648971606261</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.2494784316833</v>
+        <v>851.1366358615624</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.2109317182363</v>
+        <v>769.9053499127053</v>
       </c>
       <c r="AD2" t="n">
-        <v>574641.2271962792</v>
+        <v>622064.897160626</v>
       </c>
       <c r="AE2" t="n">
-        <v>786249.4784316833</v>
+        <v>851136.6358615623</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.833004136767511e-06</v>
+        <v>3.465777626235359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.499348958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>711210.9317182363</v>
+        <v>769905.3499127054</v>
       </c>
     </row>
     <row r="3">
@@ -14965,28 +14965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.9330933188676</v>
+        <v>349.5647843016432</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.5371080294866</v>
+        <v>478.2899595913828</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.542689298269</v>
+        <v>432.6426371321548</v>
       </c>
       <c r="AD3" t="n">
-        <v>313933.0933188676</v>
+        <v>349564.7843016431</v>
       </c>
       <c r="AE3" t="n">
-        <v>429537.1080294866</v>
+        <v>478289.9595913828</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.687097918092655e-06</v>
+        <v>5.080667117561631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.797526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>388542.689298269</v>
+        <v>432642.6371321548</v>
       </c>
     </row>
     <row r="4">
@@ -15071,28 +15071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.7274089254495</v>
+        <v>296.4819590891842</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.1576727759151</v>
+        <v>405.6596962867278</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.5440282162641</v>
+        <v>366.9441042200812</v>
       </c>
       <c r="AD4" t="n">
-        <v>272727.4089254495</v>
+        <v>296481.9590891842</v>
       </c>
       <c r="AE4" t="n">
-        <v>373157.6727759151</v>
+        <v>405659.6962867277</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.001053718019414e-06</v>
+        <v>5.674283337616565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.192057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>337544.0282162641</v>
+        <v>366944.1042200812</v>
       </c>
     </row>
     <row r="5">
@@ -15177,28 +15177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>243.5761443633895</v>
+        <v>279.1224944915965</v>
       </c>
       <c r="AB5" t="n">
-        <v>333.2716265389209</v>
+        <v>381.9077109787807</v>
       </c>
       <c r="AC5" t="n">
-        <v>301.4646502518111</v>
+        <v>345.458975053804</v>
       </c>
       <c r="AD5" t="n">
-        <v>243576.1443633895</v>
+        <v>279122.4944915965</v>
       </c>
       <c r="AE5" t="n">
-        <v>333271.6265389209</v>
+        <v>381907.7109787807</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.162051783713563e-06</v>
+        <v>5.978692630949614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.9267578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>301464.6502518111</v>
+        <v>345458.9750538039</v>
       </c>
     </row>
     <row r="6">
@@ -15283,28 +15283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.2066048460058</v>
+        <v>268.7529549742126</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.0835650994468</v>
+        <v>367.7196495392993</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.6306774830466</v>
+        <v>332.6250022850373</v>
       </c>
       <c r="AD6" t="n">
-        <v>233206.6048460058</v>
+        <v>268752.9549742126</v>
       </c>
       <c r="AE6" t="n">
-        <v>319083.5650994468</v>
+        <v>367719.6495392993</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.264661728079869e-06</v>
+        <v>6.172703785796836e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.772135416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>288630.6774830465</v>
+        <v>332625.0022850374</v>
       </c>
     </row>
     <row r="7">
@@ -15389,28 +15389,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>226.525207237754</v>
+        <v>262.0715573659607</v>
       </c>
       <c r="AB7" t="n">
-        <v>309.9417821293821</v>
+        <v>358.5778665692299</v>
       </c>
       <c r="AC7" t="n">
-        <v>280.3613734490689</v>
+        <v>324.3556982510584</v>
       </c>
       <c r="AD7" t="n">
-        <v>226525.207237754</v>
+        <v>262071.5573659607</v>
       </c>
       <c r="AE7" t="n">
-        <v>309941.7821293821</v>
+        <v>358577.8665692299</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.332334517881155e-06</v>
+        <v>6.300657038107457e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.674479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>280361.3734490689</v>
+        <v>324355.6982510584</v>
       </c>
     </row>
     <row r="8">
@@ -15495,28 +15495,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>221.7290551148599</v>
+        <v>245.5688566246149</v>
       </c>
       <c r="AB8" t="n">
-        <v>303.3794752035434</v>
+        <v>335.9981433669885</v>
       </c>
       <c r="AC8" t="n">
-        <v>274.4253638859746</v>
+        <v>303.9309521404992</v>
       </c>
       <c r="AD8" t="n">
-        <v>221729.0551148599</v>
+        <v>245568.8566246149</v>
       </c>
       <c r="AE8" t="n">
-        <v>303379.4752035434</v>
+        <v>335998.1433669885</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.380863661345444e-06</v>
+        <v>6.392414179439119e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.607747395833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>274425.3638859746</v>
+        <v>303930.9521404992</v>
       </c>
     </row>
     <row r="9">
@@ -15601,28 +15601,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>217.1840026091246</v>
+        <v>241.0238041188796</v>
       </c>
       <c r="AB9" t="n">
-        <v>297.1607338516345</v>
+        <v>329.7794020150796</v>
       </c>
       <c r="AC9" t="n">
-        <v>268.8001304806316</v>
+        <v>298.3057187351561</v>
       </c>
       <c r="AD9" t="n">
-        <v>217184.0026091246</v>
+        <v>241023.8041188796</v>
       </c>
       <c r="AE9" t="n">
-        <v>297160.7338516345</v>
+        <v>329779.4020150796</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.426521257859184e-06</v>
+        <v>6.478741904123938e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.5458984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>268800.1304806316</v>
+        <v>298305.7187351561</v>
       </c>
     </row>
     <row r="10">
@@ -15707,28 +15707,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>214.2882827847425</v>
+        <v>238.1280842944975</v>
       </c>
       <c r="AB10" t="n">
-        <v>293.1986822377743</v>
+        <v>325.8173504012195</v>
       </c>
       <c r="AC10" t="n">
-        <v>265.2162115120226</v>
+        <v>294.7217997665472</v>
       </c>
       <c r="AD10" t="n">
-        <v>214288.2827847425</v>
+        <v>238128.0842944975</v>
       </c>
       <c r="AE10" t="n">
-        <v>293198.6822377743</v>
+        <v>325817.3504012194</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.453418080962665e-06</v>
+        <v>6.529597440049375e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.51171875</v>
       </c>
       <c r="AH10" t="n">
-        <v>265216.2115120226</v>
+        <v>294721.7997665472</v>
       </c>
     </row>
     <row r="11">
@@ -15813,28 +15813,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>211.1653172694041</v>
+        <v>234.8345265785669</v>
       </c>
       <c r="AB11" t="n">
-        <v>288.9257030441756</v>
+        <v>321.3109594327739</v>
       </c>
       <c r="AC11" t="n">
-        <v>261.3510394554957</v>
+        <v>290.6454924273692</v>
       </c>
       <c r="AD11" t="n">
-        <v>211165.3172694041</v>
+        <v>234834.5265785669</v>
       </c>
       <c r="AE11" t="n">
-        <v>288925.7030441756</v>
+        <v>321310.9594327739</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.480027749371091e-06</v>
+        <v>6.579910034310128e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.475911458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>261351.0394554957</v>
+        <v>290645.4924273692</v>
       </c>
     </row>
     <row r="12">
@@ -15919,28 +15919,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>208.9590257722649</v>
+        <v>232.6282350814276</v>
       </c>
       <c r="AB12" t="n">
-        <v>285.90695768308</v>
+        <v>318.2922140716782</v>
       </c>
       <c r="AC12" t="n">
-        <v>258.6203989148263</v>
+        <v>287.9148518866998</v>
       </c>
       <c r="AD12" t="n">
-        <v>208959.0257722649</v>
+        <v>232628.2350814276</v>
       </c>
       <c r="AE12" t="n">
-        <v>285906.95768308</v>
+        <v>318292.2140716782</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.497352749306074e-06</v>
+        <v>6.612667514746087e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.454752604166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>258620.3989148263</v>
+        <v>287914.8518866998</v>
       </c>
     </row>
     <row r="13">
@@ -16025,28 +16025,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>206.5180795782879</v>
+        <v>230.1872888874506</v>
       </c>
       <c r="AB13" t="n">
-        <v>282.5671474135364</v>
+        <v>314.9524038021345</v>
       </c>
       <c r="AC13" t="n">
-        <v>255.5993354499537</v>
+        <v>284.8937884218273</v>
       </c>
       <c r="AD13" t="n">
-        <v>206518.0795782878</v>
+        <v>230187.2888874506</v>
       </c>
       <c r="AE13" t="n">
-        <v>282567.1474135364</v>
+        <v>314952.4038021346</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.514964903936112e-06</v>
+        <v>6.645967936846731e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.431966145833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>255599.3354499537</v>
+        <v>284893.7884218273</v>
       </c>
     </row>
     <row r="14">
@@ -16131,28 +16131,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>204.9488582668842</v>
+        <v>228.6180675760469</v>
       </c>
       <c r="AB14" t="n">
-        <v>280.4200695861167</v>
+        <v>312.8053259747148</v>
       </c>
       <c r="AC14" t="n">
-        <v>253.6571717169395</v>
+        <v>282.9516246888131</v>
       </c>
       <c r="AD14" t="n">
-        <v>204948.8582668842</v>
+        <v>228618.0675760469</v>
       </c>
       <c r="AE14" t="n">
-        <v>280420.0695861166</v>
+        <v>312805.3259747148</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.525781064116515e-06</v>
+        <v>6.666418739549842e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.4189453125</v>
       </c>
       <c r="AH14" t="n">
-        <v>253657.1717169395</v>
+        <v>282951.6246888131</v>
       </c>
     </row>
     <row r="15">
@@ -16237,28 +16237,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>203.1489626956653</v>
+        <v>226.8181720048281</v>
       </c>
       <c r="AB15" t="n">
-        <v>277.9573730597878</v>
+        <v>310.342629448386</v>
       </c>
       <c r="AC15" t="n">
-        <v>251.4295114906665</v>
+        <v>280.72396446254</v>
       </c>
       <c r="AD15" t="n">
-        <v>203148.9626956653</v>
+        <v>226818.1720048281</v>
       </c>
       <c r="AE15" t="n">
-        <v>277957.3730597878</v>
+        <v>310342.629448386</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.53468285966322e-06</v>
+        <v>6.683249931155058e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.407552083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>251429.5114906665</v>
+        <v>280723.96446254</v>
       </c>
     </row>
     <row r="16">
@@ -16343,28 +16343,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>201.1647555429559</v>
+        <v>224.8339648521188</v>
       </c>
       <c r="AB16" t="n">
-        <v>275.2424932964107</v>
+        <v>307.627749685009</v>
       </c>
       <c r="AC16" t="n">
-        <v>248.9737360415476</v>
+        <v>278.2681890134211</v>
       </c>
       <c r="AD16" t="n">
-        <v>201164.7555429559</v>
+        <v>224833.9648521187</v>
       </c>
       <c r="AE16" t="n">
-        <v>275242.4932964107</v>
+        <v>307627.749685009</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.544158964600034e-06</v>
+        <v>6.701167006089643e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.396158854166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>248973.7360415476</v>
+        <v>278268.1890134211</v>
       </c>
     </row>
     <row r="17">
@@ -16449,28 +16449,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>199.4646867366874</v>
+        <v>223.1338960458502</v>
       </c>
       <c r="AB17" t="n">
-        <v>272.9163841539329</v>
+        <v>305.3016405425311</v>
       </c>
       <c r="AC17" t="n">
-        <v>246.8696274909123</v>
+        <v>276.1640804627859</v>
       </c>
       <c r="AD17" t="n">
-        <v>199464.6867366874</v>
+        <v>223133.8960458502</v>
       </c>
       <c r="AE17" t="n">
-        <v>272916.3841539329</v>
+        <v>305301.6405425311</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.552390732524942e-06</v>
+        <v>6.716731333810595e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.384765625</v>
       </c>
       <c r="AH17" t="n">
-        <v>246869.6274909123</v>
+        <v>276164.0804627859</v>
       </c>
     </row>
     <row r="18">
@@ -16555,28 +16555,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>198.2442492943717</v>
+        <v>221.9134586035345</v>
       </c>
       <c r="AB18" t="n">
-        <v>271.2465278034574</v>
+        <v>303.6317841920557</v>
       </c>
       <c r="AC18" t="n">
-        <v>245.3591398868677</v>
+        <v>274.6535928587413</v>
       </c>
       <c r="AD18" t="n">
-        <v>198244.2492943717</v>
+        <v>221913.4586035345</v>
       </c>
       <c r="AE18" t="n">
-        <v>271246.5278034574</v>
+        <v>303631.7841920557</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.560718218681536e-06</v>
+        <v>6.732476642086443e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH18" t="n">
-        <v>245359.1398868677</v>
+        <v>274653.5928587412</v>
       </c>
     </row>
     <row r="19">
@@ -16661,28 +16661,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>196.3519777741813</v>
+        <v>220.0211870833441</v>
       </c>
       <c r="AB19" t="n">
-        <v>268.6574384284065</v>
+        <v>301.0426948170047</v>
       </c>
       <c r="AC19" t="n">
-        <v>243.017149567961</v>
+        <v>272.3116025398346</v>
       </c>
       <c r="AD19" t="n">
-        <v>196351.9777741813</v>
+        <v>220021.1870833441</v>
       </c>
       <c r="AE19" t="n">
-        <v>268657.4384284065</v>
+        <v>301042.6948170047</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.57172581532531e-06</v>
+        <v>6.753289405899345e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>243017.149567961</v>
+        <v>272311.6025398346</v>
       </c>
     </row>
     <row r="20">
@@ -16767,28 +16767,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>194.642926798702</v>
+        <v>218.3121361078648</v>
       </c>
       <c r="AB20" t="n">
-        <v>266.3190394857492</v>
+        <v>298.7042958743474</v>
       </c>
       <c r="AC20" t="n">
-        <v>240.9019241384266</v>
+        <v>270.1963771103001</v>
       </c>
       <c r="AD20" t="n">
-        <v>194642.926798702</v>
+        <v>218312.1361078648</v>
       </c>
       <c r="AE20" t="n">
-        <v>266319.0394857491</v>
+        <v>298704.2958743474</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.581584793188863e-06</v>
+        <v>6.771930403053509e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.3505859375</v>
       </c>
       <c r="AH20" t="n">
-        <v>240901.9241384266</v>
+        <v>270196.3771103001</v>
       </c>
     </row>
     <row r="21">
@@ -16873,28 +16873,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>194.2039676141174</v>
+        <v>217.8731769232802</v>
       </c>
       <c r="AB21" t="n">
-        <v>265.7184361638884</v>
+        <v>298.1036925524866</v>
       </c>
       <c r="AC21" t="n">
-        <v>240.358641554652</v>
+        <v>269.6530945265256</v>
       </c>
       <c r="AD21" t="n">
-        <v>194203.9676141174</v>
+        <v>217873.1769232802</v>
       </c>
       <c r="AE21" t="n">
-        <v>265718.4361638884</v>
+        <v>298103.6925524866</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.579000400933369e-06</v>
+        <v>6.767043928071349e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.352213541666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>240358.641554652</v>
+        <v>269653.0945265256</v>
       </c>
     </row>
     <row r="22">
@@ -16979,28 +16979,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>193.7495313574854</v>
+        <v>217.4187406666481</v>
       </c>
       <c r="AB22" t="n">
-        <v>265.096656429252</v>
+        <v>297.4819128178502</v>
       </c>
       <c r="AC22" t="n">
-        <v>239.7962036052158</v>
+        <v>269.0906565770894</v>
       </c>
       <c r="AD22" t="n">
-        <v>193749.5313574854</v>
+        <v>217418.7406666481</v>
       </c>
       <c r="AE22" t="n">
-        <v>265096.656429252</v>
+        <v>297481.9128178502</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.579383273860109e-06</v>
+        <v>6.767767850290929e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.352213541666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>239796.2036052158</v>
+        <v>269090.6565770893</v>
       </c>
     </row>
     <row r="23">
@@ -17085,28 +17085,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>194.3786179385364</v>
+        <v>218.0478272476992</v>
       </c>
       <c r="AB23" t="n">
-        <v>265.9574004427869</v>
+        <v>298.3426568313851</v>
       </c>
       <c r="AC23" t="n">
-        <v>240.574799418161</v>
+        <v>269.8692523900345</v>
       </c>
       <c r="AD23" t="n">
-        <v>194378.6179385364</v>
+        <v>218047.8272476992</v>
       </c>
       <c r="AE23" t="n">
-        <v>265957.4004427869</v>
+        <v>298342.6568313851</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.579000400933369e-06</v>
+        <v>6.767043928071349e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.352213541666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>240574.799418161</v>
+        <v>269869.2523900345</v>
       </c>
     </row>
   </sheetData>
@@ -17382,28 +17382,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.5562139746471</v>
+        <v>174.1554814527954</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.4706304989496</v>
+        <v>238.2872129211952</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.2881703250843</v>
+        <v>215.5454157582691</v>
       </c>
       <c r="AD2" t="n">
-        <v>154556.2139746471</v>
+        <v>174155.4814527954</v>
       </c>
       <c r="AE2" t="n">
-        <v>211470.6304989496</v>
+        <v>238287.2129211953</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.698750232641693e-06</v>
+        <v>8.479631793193386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.040690104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>191288.1703250842</v>
+        <v>215545.4157582691</v>
       </c>
     </row>
     <row r="3">
@@ -17488,28 +17488,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.4745074370825</v>
+        <v>142.1590262612514</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.5750242692733</v>
+        <v>194.5082513441681</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.581899146084</v>
+        <v>175.9446568299811</v>
       </c>
       <c r="AD3" t="n">
-        <v>122474.5074370825</v>
+        <v>142159.0262612514</v>
       </c>
       <c r="AE3" t="n">
-        <v>167575.0242692733</v>
+        <v>194508.2513441682</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.138627617922876e-06</v>
+        <v>9.48808005996729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>151581.899146084</v>
+        <v>175944.6568299811</v>
       </c>
     </row>
     <row r="4">
@@ -17594,28 +17594,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.3827085613537</v>
+        <v>139.8966351849304</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.7129327638493</v>
+        <v>191.4127480638973</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.9929616369661</v>
+        <v>173.1445840382122</v>
       </c>
       <c r="AD4" t="n">
-        <v>120382.7085613537</v>
+        <v>139896.6351849304</v>
       </c>
       <c r="AE4" t="n">
-        <v>164712.9327638493</v>
+        <v>191412.7480638973</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.185822795718671e-06</v>
+        <v>9.596278155256575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.454752604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>148992.9616369661</v>
+        <v>173144.5840382122</v>
       </c>
     </row>
   </sheetData>
@@ -17891,28 +17891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.5999544109737</v>
+        <v>443.7859159194958</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.4327278997479</v>
+        <v>607.2074686138875</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.9458149212689</v>
+        <v>549.256440030412</v>
       </c>
       <c r="AD2" t="n">
-        <v>409599.9544109738</v>
+        <v>443785.9159194959</v>
       </c>
       <c r="AE2" t="n">
-        <v>560432.7278997479</v>
+        <v>607207.4686138876</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.238752069745992e-06</v>
+        <v>4.387923117295892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.234700520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>506945.814921269</v>
+        <v>549256.440030412</v>
       </c>
     </row>
     <row r="3">
@@ -17997,28 +17997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.7182505499818</v>
+        <v>292.7335303493605</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.9897242461518</v>
+        <v>400.5309307158961</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.2054417917967</v>
+        <v>362.3048208370621</v>
       </c>
       <c r="AD3" t="n">
-        <v>258718.2505499818</v>
+        <v>292733.5303493605</v>
       </c>
       <c r="AE3" t="n">
-        <v>353989.7242461517</v>
+        <v>400530.9307158961</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.005701538632171e-06</v>
+        <v>5.891133477121623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.388997395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>320205.4417917966</v>
+        <v>362304.8208370621</v>
       </c>
     </row>
     <row r="4">
@@ -18103,28 +18103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.6207878448896</v>
+        <v>253.7213189902885</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.4948509145839</v>
+        <v>347.1527020369535</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.8160440905568</v>
+        <v>314.0209353865277</v>
       </c>
       <c r="AD4" t="n">
-        <v>219620.7878448896</v>
+        <v>253721.3189902885</v>
       </c>
       <c r="AE4" t="n">
-        <v>300494.8509145839</v>
+        <v>347152.7020369535</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.282945760809009e-06</v>
+        <v>6.434528321091323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.933268229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>271816.0440905568</v>
+        <v>314020.9353865277</v>
       </c>
     </row>
     <row r="5">
@@ -18209,28 +18209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>206.68583949448</v>
+        <v>240.7863706398789</v>
       </c>
       <c r="AB5" t="n">
-        <v>282.7966839319155</v>
+        <v>329.4545350542851</v>
       </c>
       <c r="AC5" t="n">
-        <v>255.8069653251754</v>
+        <v>298.0118566211462</v>
       </c>
       <c r="AD5" t="n">
-        <v>206685.83949448</v>
+        <v>240786.3706398789</v>
       </c>
       <c r="AE5" t="n">
-        <v>282796.6839319156</v>
+        <v>329454.5350542851</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.431718234661979e-06</v>
+        <v>6.726120313817347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.720052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>255806.9653251754</v>
+        <v>298011.8566211462</v>
       </c>
     </row>
     <row r="6">
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>198.9954262720506</v>
+        <v>221.8713484599359</v>
       </c>
       <c r="AB6" t="n">
-        <v>272.2743212839065</v>
+        <v>303.5741672358156</v>
       </c>
       <c r="AC6" t="n">
-        <v>246.2888422000602</v>
+        <v>274.6014747839387</v>
       </c>
       <c r="AD6" t="n">
-        <v>198995.4262720506</v>
+        <v>221871.3484599359</v>
       </c>
       <c r="AE6" t="n">
-        <v>272274.3212839065</v>
+        <v>303574.1672358156</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.520583665532014e-06</v>
+        <v>6.90029533020821e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.601236979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>246288.8422000602</v>
+        <v>274601.4747839387</v>
       </c>
     </row>
     <row r="7">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>194.041567296358</v>
+        <v>216.9174894842432</v>
       </c>
       <c r="AB7" t="n">
-        <v>265.4962328845336</v>
+        <v>296.7960788364427</v>
       </c>
       <c r="AC7" t="n">
-        <v>240.1576450444145</v>
+        <v>268.4702776282931</v>
       </c>
       <c r="AD7" t="n">
-        <v>194041.5672963579</v>
+        <v>216917.4894842432</v>
       </c>
       <c r="AE7" t="n">
-        <v>265496.2328845336</v>
+        <v>296796.0788364427</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.575714067213984e-06</v>
+        <v>7.008350155606348e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.529622395833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>240157.6450444145</v>
+        <v>268470.2776282931</v>
       </c>
     </row>
     <row r="8">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>189.9673449123116</v>
+        <v>212.6726748996047</v>
       </c>
       <c r="AB8" t="n">
-        <v>259.9217020766782</v>
+        <v>290.9881362537404</v>
       </c>
       <c r="AC8" t="n">
-        <v>235.1151396329559</v>
+        <v>263.2166369341835</v>
       </c>
       <c r="AD8" t="n">
-        <v>189967.3449123116</v>
+        <v>212672.6748996047</v>
       </c>
       <c r="AE8" t="n">
-        <v>259921.7020766782</v>
+        <v>290988.1362537405</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.618803352283105e-06</v>
+        <v>7.092804558850742e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.475911458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>235115.1396329559</v>
+        <v>263216.6369341835</v>
       </c>
     </row>
     <row r="9">
@@ -18633,28 +18633,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>186.0553083548646</v>
+        <v>208.7606383421577</v>
       </c>
       <c r="AB9" t="n">
-        <v>254.5690810719095</v>
+        <v>285.6355152489718</v>
       </c>
       <c r="AC9" t="n">
-        <v>230.2733652644299</v>
+        <v>258.3748625656574</v>
       </c>
       <c r="AD9" t="n">
-        <v>186055.3083548646</v>
+        <v>208760.6383421577</v>
       </c>
       <c r="AE9" t="n">
-        <v>254569.0810719095</v>
+        <v>285635.5152489718</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.654230108598594e-06</v>
+        <v>7.16224051163366e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.431966145833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>230273.3652644299</v>
+        <v>258374.8625656574</v>
       </c>
     </row>
     <row r="10">
@@ -18739,28 +18739,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>184.162807953245</v>
+        <v>206.8681379405381</v>
       </c>
       <c r="AB10" t="n">
-        <v>251.9796785311897</v>
+        <v>283.046112708252</v>
       </c>
       <c r="AC10" t="n">
-        <v>227.9310916679463</v>
+        <v>256.0325889691738</v>
       </c>
       <c r="AD10" t="n">
-        <v>184162.807953245</v>
+        <v>206868.1379405381</v>
       </c>
       <c r="AE10" t="n">
-        <v>251979.6785311897</v>
+        <v>283046.112708252</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.668261492420178e-06</v>
+        <v>7.189741830011166e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.415690104166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>227931.0916679463</v>
+        <v>256032.5889691738</v>
       </c>
     </row>
     <row r="11">
@@ -18845,28 +18845,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>180.6242404365642</v>
+        <v>203.3295704238573</v>
       </c>
       <c r="AB11" t="n">
-        <v>247.1380543442884</v>
+        <v>278.2044885213506</v>
       </c>
       <c r="AC11" t="n">
-        <v>223.551545298179</v>
+        <v>251.6530425994065</v>
       </c>
       <c r="AD11" t="n">
-        <v>180624.2404365642</v>
+        <v>203329.5704238573</v>
       </c>
       <c r="AE11" t="n">
-        <v>247138.0543442884</v>
+        <v>278204.4885213506</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.697717447109463e-06</v>
+        <v>7.247475094122807e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.3798828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>223551.545298179</v>
+        <v>251653.0425994066</v>
       </c>
     </row>
     <row r="12">
@@ -18951,28 +18951,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>177.8622797412662</v>
+        <v>200.5676097285594</v>
       </c>
       <c r="AB12" t="n">
-        <v>243.3590178718774</v>
+        <v>274.4254520489396</v>
       </c>
       <c r="AC12" t="n">
-        <v>220.1331747627827</v>
+        <v>248.2346720640103</v>
       </c>
       <c r="AD12" t="n">
-        <v>177862.2797412662</v>
+        <v>200567.6097285594</v>
       </c>
       <c r="AE12" t="n">
-        <v>243359.0178718774</v>
+        <v>274425.4520489397</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.716425958871574e-06</v>
+        <v>7.284143518626145e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.358723958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>220133.1747627828</v>
+        <v>248234.6720640103</v>
       </c>
     </row>
     <row r="13">
@@ -19057,28 +19057,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>176.2438541193061</v>
+        <v>198.9491841065992</v>
       </c>
       <c r="AB13" t="n">
-        <v>241.1446165360133</v>
+        <v>272.2110507130756</v>
       </c>
       <c r="AC13" t="n">
-        <v>218.130112782481</v>
+        <v>246.2316100837085</v>
       </c>
       <c r="AD13" t="n">
-        <v>176243.8541193061</v>
+        <v>198949.1841065992</v>
       </c>
       <c r="AE13" t="n">
-        <v>241144.6165360133</v>
+        <v>272211.0507130756</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.724188000985643e-06</v>
+        <v>7.299357013898808e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>218130.112782481</v>
+        <v>246231.6100837085</v>
       </c>
     </row>
     <row r="14">
@@ -19163,28 +19163,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>174.2204840445738</v>
+        <v>196.925814031867</v>
       </c>
       <c r="AB14" t="n">
-        <v>238.3761523349783</v>
+        <v>269.4425865120406</v>
       </c>
       <c r="AC14" t="n">
-        <v>215.6258669192281</v>
+        <v>243.7273642204556</v>
       </c>
       <c r="AD14" t="n">
-        <v>174220.4840445738</v>
+        <v>196925.814031867</v>
       </c>
       <c r="AE14" t="n">
-        <v>238376.1523349783</v>
+        <v>269442.5865120406</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.732945176704078e-06</v>
+        <v>7.316520957283349e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.339192708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>215625.8669192281</v>
+        <v>243727.3642204556</v>
       </c>
     </row>
     <row r="15">
@@ -19269,28 +19269,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>173.4143840746357</v>
+        <v>196.1197140619288</v>
       </c>
       <c r="AB15" t="n">
-        <v>237.2732107934888</v>
+        <v>268.3396449705511</v>
       </c>
       <c r="AC15" t="n">
-        <v>214.6281885704698</v>
+        <v>242.7296858716973</v>
       </c>
       <c r="AD15" t="n">
-        <v>173414.3840746357</v>
+        <v>196119.7140619289</v>
       </c>
       <c r="AE15" t="n">
-        <v>237273.2107934888</v>
+        <v>268339.6449705511</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.742199919224698e-06</v>
+        <v>7.334660124723832e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.327799479166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>214628.1885704698</v>
+        <v>242729.6858716973</v>
       </c>
     </row>
   </sheetData>
@@ -19566,28 +19566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.1140775137872</v>
+        <v>526.6975865778056</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.9132619925747</v>
+        <v>720.6508742133414</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.2183822515565</v>
+        <v>651.8729662182739</v>
       </c>
       <c r="AD2" t="n">
-        <v>480114.0775137872</v>
+        <v>526697.5865778056</v>
       </c>
       <c r="AE2" t="n">
-        <v>656913.2619925747</v>
+        <v>720650.8742133414</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.025825383719726e-06</v>
+        <v>3.895060707327775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.833658854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>594218.3822515565</v>
+        <v>651872.9662182739</v>
       </c>
     </row>
     <row r="3">
@@ -19672,28 +19672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.1855366946482</v>
+        <v>320.123168492662</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.2034328035402</v>
+        <v>438.0066419691152</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.962964830727</v>
+        <v>396.2039028057651</v>
       </c>
       <c r="AD3" t="n">
-        <v>285185.5366946482</v>
+        <v>320123.168492662</v>
       </c>
       <c r="AE3" t="n">
-        <v>390203.4328035402</v>
+        <v>438006.6419691152</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.843097769836044e-06</v>
+        <v>5.466432842324233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.582682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>352962.964830727</v>
+        <v>396203.9028057651</v>
       </c>
     </row>
     <row r="4">
@@ -19778,28 +19778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>251.2387368081672</v>
+        <v>274.5305808487305</v>
       </c>
       <c r="AB4" t="n">
-        <v>343.7559235715808</v>
+        <v>375.624852151679</v>
       </c>
       <c r="AC4" t="n">
-        <v>310.9483406904805</v>
+        <v>339.7757434551132</v>
       </c>
       <c r="AD4" t="n">
-        <v>251238.7368081672</v>
+        <v>274530.5808487305</v>
       </c>
       <c r="AE4" t="n">
-        <v>343755.9235715807</v>
+        <v>375624.852151679</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.141360264363582e-06</v>
+        <v>6.039903059570018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>310948.3406904805</v>
+        <v>339775.7434551131</v>
       </c>
     </row>
     <row r="5">
@@ -19884,28 +19884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.8258076206881</v>
+        <v>259.678098564133</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.6165886010938</v>
+        <v>355.3030306446192</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.2580931276902</v>
+        <v>321.3934080708315</v>
       </c>
       <c r="AD5" t="n">
-        <v>224825.8076206881</v>
+        <v>259678.098564133</v>
       </c>
       <c r="AE5" t="n">
-        <v>307616.5886010939</v>
+        <v>355303.0306446192</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.294440393951105e-06</v>
+        <v>6.334230696404238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>278258.0931276902</v>
+        <v>321393.4080708314</v>
       </c>
     </row>
     <row r="6">
@@ -19990,28 +19990,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>216.2167216338561</v>
+        <v>251.0690125772977</v>
       </c>
       <c r="AB6" t="n">
-        <v>295.8372573478479</v>
+        <v>343.5236993912007</v>
       </c>
       <c r="AC6" t="n">
-        <v>267.602964716855</v>
+        <v>310.7382796599471</v>
       </c>
       <c r="AD6" t="n">
-        <v>216216.7216338561</v>
+        <v>251069.0125772977</v>
       </c>
       <c r="AE6" t="n">
-        <v>295837.2573478479</v>
+        <v>343523.6993912007</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.387653517445164e-06</v>
+        <v>6.51345185615807e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.684244791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>267602.964716855</v>
+        <v>310738.2796599471</v>
       </c>
     </row>
     <row r="7">
@@ -20096,28 +20096,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>210.5792976501164</v>
+        <v>233.9563930366968</v>
       </c>
       <c r="AB7" t="n">
-        <v>288.1238851477057</v>
+        <v>320.1094583802702</v>
       </c>
       <c r="AC7" t="n">
-        <v>260.6257459337061</v>
+        <v>289.5586609489988</v>
       </c>
       <c r="AD7" t="n">
-        <v>210579.2976501164</v>
+        <v>233956.3930366968</v>
       </c>
       <c r="AE7" t="n">
-        <v>288123.8851477057</v>
+        <v>320109.4583802702</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.446155477797083e-06</v>
+        <v>6.625933755585161e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.6044921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>260625.7459337061</v>
+        <v>289558.6609489988</v>
       </c>
     </row>
     <row r="8">
@@ -20202,28 +20202,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>206.2739274365684</v>
+        <v>229.6510228231488</v>
       </c>
       <c r="AB8" t="n">
-        <v>282.2330876820036</v>
+        <v>314.2186609145681</v>
       </c>
       <c r="AC8" t="n">
-        <v>255.2971579103425</v>
+        <v>284.2300729256354</v>
       </c>
       <c r="AD8" t="n">
-        <v>206273.9274365684</v>
+        <v>229651.0228231488</v>
       </c>
       <c r="AE8" t="n">
-        <v>282233.0876820036</v>
+        <v>314218.6609145682</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.493347059147632e-06</v>
+        <v>6.716669154456348e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.542643229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>255297.1579103426</v>
+        <v>284230.0729256354</v>
       </c>
     </row>
     <row r="9">
@@ -20308,28 +20308,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>202.6585800649563</v>
+        <v>225.8650832509445</v>
       </c>
       <c r="AB9" t="n">
-        <v>277.2864099102973</v>
+        <v>309.0385713680149</v>
       </c>
       <c r="AC9" t="n">
-        <v>250.8225841224604</v>
+        <v>279.5443638551022</v>
       </c>
       <c r="AD9" t="n">
-        <v>202658.5800649563</v>
+        <v>225865.0832509445</v>
       </c>
       <c r="AE9" t="n">
-        <v>277286.4099102973</v>
+        <v>309038.5713680149</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.529033254962303e-06</v>
+        <v>6.785283113106873e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.4970703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>250822.5841224604</v>
+        <v>279544.3638551022</v>
       </c>
     </row>
     <row r="10">
@@ -20414,28 +20414,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>199.7031592650458</v>
+        <v>222.9096624510341</v>
       </c>
       <c r="AB10" t="n">
-        <v>273.2426727878981</v>
+        <v>304.9948342456159</v>
       </c>
       <c r="AC10" t="n">
-        <v>247.1647755956011</v>
+        <v>275.8865553282428</v>
       </c>
       <c r="AD10" t="n">
-        <v>199703.1592650458</v>
+        <v>222909.6624510341</v>
       </c>
       <c r="AE10" t="n">
-        <v>273242.6727878981</v>
+        <v>304994.8342456159</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.554384104448134e-06</v>
+        <v>6.834025269525278e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.464518229166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>247164.7755956011</v>
+        <v>275886.5553282428</v>
       </c>
     </row>
     <row r="11">
@@ -20520,28 +20520,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>196.2468013590463</v>
+        <v>219.4533045450345</v>
       </c>
       <c r="AB11" t="n">
-        <v>268.5135314171629</v>
+        <v>300.2656928748806</v>
       </c>
       <c r="AC11" t="n">
-        <v>242.8869768398957</v>
+        <v>271.6087565725374</v>
       </c>
       <c r="AD11" t="n">
-        <v>196246.8013590463</v>
+        <v>219453.3045450345</v>
       </c>
       <c r="AE11" t="n">
-        <v>268513.5314171629</v>
+        <v>300265.6928748806</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.583927594425854e-06</v>
+        <v>6.890828628735959e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.4287109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>242886.9768398957</v>
+        <v>271608.7565725374</v>
       </c>
     </row>
     <row r="12">
@@ -20626,28 +20626,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>193.731825034444</v>
+        <v>216.9383282204323</v>
       </c>
       <c r="AB12" t="n">
-        <v>265.072429856919</v>
+        <v>296.8245913146366</v>
       </c>
       <c r="AC12" t="n">
-        <v>239.774289182944</v>
+        <v>268.4960689155857</v>
       </c>
       <c r="AD12" t="n">
-        <v>193731.825034444</v>
+        <v>216938.3282204323</v>
       </c>
       <c r="AE12" t="n">
-        <v>265072.429856919</v>
+        <v>296824.5913146366</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.602063202134949e-06</v>
+        <v>6.925698017558358e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.405924479166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>239774.289182944</v>
+        <v>268496.0689155858</v>
       </c>
     </row>
     <row r="13">
@@ -20732,28 +20732,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>192.144089609426</v>
+        <v>215.3505927954143</v>
       </c>
       <c r="AB13" t="n">
-        <v>262.900020202467</v>
+        <v>294.6521816601847</v>
       </c>
       <c r="AC13" t="n">
-        <v>237.8092112569162</v>
+        <v>266.5309909895579</v>
       </c>
       <c r="AD13" t="n">
-        <v>192144.089609426</v>
+        <v>215350.5927954143</v>
       </c>
       <c r="AE13" t="n">
-        <v>262900.020202467</v>
+        <v>294652.1816601848</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.610448483118724e-06</v>
+        <v>6.941820423142907e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.396158854166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>237809.2112569162</v>
+        <v>266530.9909895579</v>
       </c>
     </row>
     <row r="14">
@@ -20838,28 +20838,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>189.4399324275743</v>
+        <v>212.6464356135626</v>
       </c>
       <c r="AB14" t="n">
-        <v>259.2000730472644</v>
+        <v>290.9522345049821</v>
       </c>
       <c r="AC14" t="n">
-        <v>234.4623818652964</v>
+        <v>263.1841615979382</v>
       </c>
       <c r="AD14" t="n">
-        <v>189439.9324275744</v>
+        <v>212646.4356135626</v>
       </c>
       <c r="AE14" t="n">
-        <v>259200.0730472644</v>
+        <v>290952.2345049821</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.630241646371124e-06</v>
+        <v>6.97987679911574e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.371744791666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>234462.3818652964</v>
+        <v>263184.1615979382</v>
       </c>
     </row>
     <row r="15">
@@ -20944,28 +20944,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>187.7049325711345</v>
+        <v>210.9114357571227</v>
       </c>
       <c r="AB15" t="n">
-        <v>256.8261697008929</v>
+        <v>288.5783311586106</v>
       </c>
       <c r="AC15" t="n">
-        <v>232.3150405225076</v>
+        <v>261.0368202551494</v>
       </c>
       <c r="AD15" t="n">
-        <v>187704.9325711345</v>
+        <v>210911.4357571227</v>
       </c>
       <c r="AE15" t="n">
-        <v>256826.1697008929</v>
+        <v>288578.3311586106</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.639796966561937e-06</v>
+        <v>6.998248842688831e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.3603515625</v>
       </c>
       <c r="AH15" t="n">
-        <v>232315.0405225077</v>
+        <v>261036.8202551494</v>
       </c>
     </row>
     <row r="16">
@@ -21050,28 +21050,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>186.1111280675823</v>
+        <v>209.3176312535705</v>
       </c>
       <c r="AB16" t="n">
-        <v>254.6454560654417</v>
+        <v>286.3976175231595</v>
       </c>
       <c r="AC16" t="n">
-        <v>230.3424511357724</v>
+        <v>259.0642308684141</v>
       </c>
       <c r="AD16" t="n">
-        <v>186111.1280675823</v>
+        <v>209317.6312535706</v>
       </c>
       <c r="AE16" t="n">
-        <v>254645.4560654417</v>
+        <v>286397.6175231595</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.647889737743953e-06</v>
+        <v>7.013808838776245e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.3505859375</v>
       </c>
       <c r="AH16" t="n">
-        <v>230342.4511357724</v>
+        <v>259064.2308684141</v>
       </c>
     </row>
     <row r="17">
@@ -21156,28 +21156,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>184.0463787031531</v>
+        <v>207.2528818891414</v>
       </c>
       <c r="AB17" t="n">
-        <v>251.820374894718</v>
+        <v>283.5725363524357</v>
       </c>
       <c r="AC17" t="n">
-        <v>227.7869917469554</v>
+        <v>256.5087714795971</v>
       </c>
       <c r="AD17" t="n">
-        <v>184046.3787031531</v>
+        <v>207252.8818891414</v>
       </c>
       <c r="AE17" t="n">
-        <v>251820.374894718</v>
+        <v>283572.5363524357</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.656762535063994e-06</v>
+        <v>7.030868593522688e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.339192708333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>227786.9917469553</v>
+        <v>256508.7714795971</v>
       </c>
     </row>
     <row r="18">
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>183.8863024923233</v>
+        <v>207.0928056783115</v>
       </c>
       <c r="AB18" t="n">
-        <v>251.6013515609968</v>
+        <v>283.3535130187145</v>
       </c>
       <c r="AC18" t="n">
-        <v>227.5888716928032</v>
+        <v>256.3106514254449</v>
       </c>
       <c r="AD18" t="n">
-        <v>183886.3024923233</v>
+        <v>207092.8056783115</v>
       </c>
       <c r="AE18" t="n">
-        <v>251601.3515609968</v>
+        <v>283353.5130187145</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.655299986055196e-06</v>
+        <v>7.02805654603701e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.3408203125</v>
       </c>
       <c r="AH18" t="n">
-        <v>227588.8716928032</v>
+        <v>256310.6514254449</v>
       </c>
     </row>
     <row r="19">
@@ -21368,28 +21368,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>184.3305927162962</v>
+        <v>207.5370959022844</v>
       </c>
       <c r="AB19" t="n">
-        <v>252.2092490461375</v>
+        <v>283.9614105038552</v>
       </c>
       <c r="AC19" t="n">
-        <v>228.1387522951518</v>
+        <v>256.8605320277935</v>
       </c>
       <c r="AD19" t="n">
-        <v>184330.5927162962</v>
+        <v>207537.0959022844</v>
       </c>
       <c r="AE19" t="n">
-        <v>252209.2490461375</v>
+        <v>283961.4105038552</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.657152548133007e-06</v>
+        <v>7.031618472852201e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.339192708333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>228138.7522951518</v>
+        <v>256860.5320277935</v>
       </c>
     </row>
   </sheetData>
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>685.3650315248489</v>
+        <v>745.6587165211043</v>
       </c>
       <c r="AB2" t="n">
-        <v>937.7466723035279</v>
+        <v>1020.243152085056</v>
       </c>
       <c r="AC2" t="n">
-        <v>848.2494460345994</v>
+        <v>922.8725775703145</v>
       </c>
       <c r="AD2" t="n">
-        <v>685365.0315248489</v>
+        <v>745658.7165211043</v>
       </c>
       <c r="AE2" t="n">
-        <v>937746.6723035279</v>
+        <v>1020243.152085056</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.657225340088614e-06</v>
+        <v>3.08728511396889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.2431640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>848249.4460345993</v>
+        <v>922872.5775703145</v>
       </c>
     </row>
     <row r="3">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.1415344703898</v>
+        <v>393.3348494424779</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.6568034348884</v>
+        <v>538.1780937160638</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.020083949193</v>
+        <v>486.8151317895004</v>
       </c>
       <c r="AD3" t="n">
-        <v>357141.5344703898</v>
+        <v>393334.8494424779</v>
       </c>
       <c r="AE3" t="n">
-        <v>488656.8034348884</v>
+        <v>538178.0937160638</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538305675934466e-06</v>
+        <v>4.728670952856774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.03515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>442020.083949193</v>
+        <v>486815.1317895004</v>
       </c>
     </row>
     <row r="4">
@@ -21877,28 +21877,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.3312072766738</v>
+        <v>331.4391813941903</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.085186889264</v>
+        <v>453.4897100482417</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.5198637896736</v>
+        <v>410.2092885980423</v>
       </c>
       <c r="AD4" t="n">
-        <v>295331.2072766738</v>
+        <v>331439.1813941903</v>
       </c>
       <c r="AE4" t="n">
-        <v>404085.186889264</v>
+        <v>453489.7100482417</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.866757969472388e-06</v>
+        <v>5.340552663785926e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.343424479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>365519.8637896737</v>
+        <v>410209.2885980423</v>
       </c>
     </row>
     <row r="5">
@@ -21983,28 +21983,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>274.3204998728597</v>
+        <v>298.5063002601499</v>
       </c>
       <c r="AB5" t="n">
-        <v>375.3374100923741</v>
+        <v>408.4294891844723</v>
       </c>
       <c r="AC5" t="n">
-        <v>339.5157344625208</v>
+        <v>369.4495519710938</v>
       </c>
       <c r="AD5" t="n">
-        <v>274320.4998728597</v>
+        <v>298506.3002601499</v>
       </c>
       <c r="AE5" t="n">
-        <v>375337.4100923741</v>
+        <v>408429.4891844724</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.041901155224272e-06</v>
+        <v>5.666831134857315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.035807291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>339515.7344625208</v>
+        <v>369449.5519710938</v>
       </c>
     </row>
     <row r="6">
@@ -22089,28 +22089,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>250.4208766110743</v>
+        <v>286.6141020746144</v>
       </c>
       <c r="AB6" t="n">
-        <v>342.6368911684734</v>
+        <v>392.1580589802664</v>
       </c>
       <c r="AC6" t="n">
-        <v>309.9361071693536</v>
+        <v>354.7310442284817</v>
       </c>
       <c r="AD6" t="n">
-        <v>250420.8766110743</v>
+        <v>286614.1020746144</v>
       </c>
       <c r="AE6" t="n">
-        <v>342636.8911684734</v>
+        <v>392158.0589802664</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.150130421003243e-06</v>
+        <v>5.868454048200732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>309936.1071693536</v>
+        <v>354731.0442284817</v>
       </c>
     </row>
     <row r="7">
@@ -22195,28 +22195,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.7627256210944</v>
+        <v>278.9559510846344</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.1586711302111</v>
+        <v>381.6798389419988</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.4579137452654</v>
+        <v>345.252850804392</v>
       </c>
       <c r="AD7" t="n">
-        <v>242762.7256210944</v>
+        <v>278955.9510846344</v>
       </c>
       <c r="AE7" t="n">
-        <v>332158.6711302111</v>
+        <v>381679.8389419988</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.222879310087717e-06</v>
+        <v>6.003979710822003e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>300457.9137452654</v>
+        <v>345252.850804392</v>
       </c>
     </row>
     <row r="8">
@@ -22301,28 +22301,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>236.3904928347569</v>
+        <v>272.5837182982968</v>
       </c>
       <c r="AB8" t="n">
-        <v>323.4399011088785</v>
+        <v>372.9610689206617</v>
       </c>
       <c r="AC8" t="n">
-        <v>292.5712508978955</v>
+        <v>337.3661879570208</v>
       </c>
       <c r="AD8" t="n">
-        <v>236390.4928347568</v>
+        <v>272583.7182982968</v>
       </c>
       <c r="AE8" t="n">
-        <v>323439.9011088785</v>
+        <v>372961.0689206617</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.284146485759116e-06</v>
+        <v>6.118115812201623e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.664713541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>292571.2508978955</v>
+        <v>337366.1879570208</v>
       </c>
     </row>
     <row r="9">
@@ -22407,28 +22407,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>232.583001794845</v>
+        <v>256.8540535281553</v>
       </c>
       <c r="AB9" t="n">
-        <v>318.230323893424</v>
+        <v>351.4390476381544</v>
       </c>
       <c r="AC9" t="n">
-        <v>287.8588684201948</v>
+        <v>317.8981981794752</v>
       </c>
       <c r="AD9" t="n">
-        <v>232583.001794845</v>
+        <v>256854.0535281553</v>
       </c>
       <c r="AE9" t="n">
-        <v>318230.323893424</v>
+        <v>351439.0476381544</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.319438637643564e-06</v>
+        <v>6.183862414378823e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.6142578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>287858.8684201948</v>
+        <v>317898.1981794752</v>
       </c>
     </row>
     <row r="10">
@@ -22513,28 +22513,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>229.0468386533242</v>
+        <v>253.3178903866346</v>
       </c>
       <c r="AB10" t="n">
-        <v>313.3919894786903</v>
+        <v>346.6007132234207</v>
       </c>
       <c r="AC10" t="n">
-        <v>283.4822978513567</v>
+        <v>313.521627610637</v>
       </c>
       <c r="AD10" t="n">
-        <v>229046.8386533242</v>
+        <v>253317.8903866346</v>
       </c>
       <c r="AE10" t="n">
-        <v>313391.9894786903</v>
+        <v>346600.7132234207</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.35397789028781e-06</v>
+        <v>6.248206422376246e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.567057291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>283482.2978513567</v>
+        <v>313521.627610637</v>
       </c>
     </row>
     <row r="11">
@@ -22619,28 +22619,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>226.0590237762143</v>
+        <v>250.3300755095247</v>
       </c>
       <c r="AB11" t="n">
-        <v>309.303929350741</v>
+        <v>342.5126530954714</v>
       </c>
       <c r="AC11" t="n">
-        <v>279.7843964443892</v>
+        <v>309.8237262036696</v>
       </c>
       <c r="AD11" t="n">
-        <v>226059.0237762143</v>
+        <v>250330.0755095247</v>
       </c>
       <c r="AE11" t="n">
-        <v>309303.929350741</v>
+        <v>342512.6530954714</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.380141138884814e-06</v>
+        <v>6.296946570123611e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH11" t="n">
-        <v>279784.3964443892</v>
+        <v>309823.7262036696</v>
       </c>
     </row>
     <row r="12">
@@ -22725,28 +22725,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>223.7400668834154</v>
+        <v>248.0111186167257</v>
       </c>
       <c r="AB12" t="n">
-        <v>306.1310302248573</v>
+        <v>339.3397539695877</v>
       </c>
       <c r="AC12" t="n">
-        <v>276.914314357887</v>
+        <v>306.9536441171674</v>
       </c>
       <c r="AD12" t="n">
-        <v>223740.0668834154</v>
+        <v>248011.1186167257</v>
       </c>
       <c r="AE12" t="n">
-        <v>306131.0302248573</v>
+        <v>339339.7539695877</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.399340069509953e-06</v>
+        <v>6.332712721708007e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.5068359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>276914.314357887</v>
+        <v>306953.6441171673</v>
       </c>
     </row>
     <row r="13">
@@ -22831,28 +22831,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>221.4552826135049</v>
+        <v>245.5557421462231</v>
       </c>
       <c r="AB13" t="n">
-        <v>303.0048875891995</v>
+        <v>335.980199559083</v>
       </c>
       <c r="AC13" t="n">
-        <v>274.0865263878065</v>
+        <v>303.9147208644359</v>
       </c>
       <c r="AD13" t="n">
-        <v>221455.2826135049</v>
+        <v>245555.7421462231</v>
       </c>
       <c r="AE13" t="n">
-        <v>303004.8875891995</v>
+        <v>335980.199559083</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.418444887730067e-06</v>
+        <v>6.368303549019932e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.480794270833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>274086.5263878065</v>
+        <v>303914.7208644359</v>
       </c>
     </row>
     <row r="14">
@@ -22937,28 +22937,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>218.9091135738213</v>
+        <v>243.0095731065395</v>
       </c>
       <c r="AB14" t="n">
-        <v>299.5211067800557</v>
+        <v>332.4964187499393</v>
       </c>
       <c r="AC14" t="n">
-        <v>270.9352327295693</v>
+        <v>300.7634272061987</v>
       </c>
       <c r="AD14" t="n">
-        <v>218909.1135738213</v>
+        <v>243009.5731065395</v>
       </c>
       <c r="AE14" t="n">
-        <v>299521.1067800557</v>
+        <v>332496.4187499393</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.436702694304954e-06</v>
+        <v>6.402316457879604e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.456380208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>270935.2327295693</v>
+        <v>300763.4272061987</v>
       </c>
     </row>
     <row r="15">
@@ -23043,28 +23043,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>217.5425241928462</v>
+        <v>241.6429837255644</v>
       </c>
       <c r="AB15" t="n">
-        <v>297.6512788993381</v>
+        <v>330.6265908692216</v>
       </c>
       <c r="AC15" t="n">
-        <v>269.2438585974668</v>
+        <v>299.0720530740962</v>
       </c>
       <c r="AD15" t="n">
-        <v>217542.5241928462</v>
+        <v>241642.9837255644</v>
       </c>
       <c r="AE15" t="n">
-        <v>297651.2788993381</v>
+        <v>330626.5908692216</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.446208047212498e-06</v>
+        <v>6.42002420939933e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.444986979166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>269243.8585974668</v>
+        <v>299072.0530740962</v>
       </c>
     </row>
     <row r="16">
@@ -23149,28 +23149,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>215.984333001275</v>
+        <v>240.0847925339933</v>
       </c>
       <c r="AB16" t="n">
-        <v>295.5192929684877</v>
+        <v>328.4946049383714</v>
       </c>
       <c r="AC16" t="n">
-        <v>267.3153464115951</v>
+        <v>297.1435408882245</v>
       </c>
       <c r="AD16" t="n">
-        <v>215984.3330012751</v>
+        <v>240084.7925339933</v>
       </c>
       <c r="AE16" t="n">
-        <v>295519.2929684877</v>
+        <v>328494.6049383713</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.455525175309992e-06</v>
+        <v>6.437381312374111e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>267315.3464115951</v>
+        <v>297143.5408882245</v>
       </c>
     </row>
     <row r="17">
@@ -23255,28 +23255,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>214.5165363817025</v>
+        <v>238.6169959144207</v>
       </c>
       <c r="AB17" t="n">
-        <v>293.510988878973</v>
+        <v>326.4863008488564</v>
       </c>
       <c r="AC17" t="n">
-        <v>265.4987120457104</v>
+        <v>295.3269065223398</v>
       </c>
       <c r="AD17" t="n">
-        <v>214516.5363817025</v>
+        <v>238616.9959144207</v>
       </c>
       <c r="AE17" t="n">
-        <v>293510.9888789729</v>
+        <v>326486.3008488565</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.463336504927083e-06</v>
+        <v>6.451933226989332e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.422200520833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>265498.7120457104</v>
+        <v>295326.9065223398</v>
       </c>
     </row>
     <row r="18">
@@ -23361,28 +23361,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>213.0975182606179</v>
+        <v>237.1979777933361</v>
       </c>
       <c r="AB18" t="n">
-        <v>291.5694256830447</v>
+        <v>324.5447376529282</v>
       </c>
       <c r="AC18" t="n">
-        <v>263.7424489162</v>
+        <v>293.5706433928294</v>
       </c>
       <c r="AD18" t="n">
-        <v>213097.5182606179</v>
+        <v>237197.9777933361</v>
       </c>
       <c r="AE18" t="n">
-        <v>291569.4256830447</v>
+        <v>324544.7376529282</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.473124195049704e-06</v>
+        <v>6.470166951326476e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.410807291666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>263742.4489162</v>
+        <v>293570.6433928293</v>
       </c>
     </row>
     <row r="19">
@@ -23467,28 +23467,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>211.3754579540429</v>
+        <v>235.4759174867611</v>
       </c>
       <c r="AB19" t="n">
-        <v>289.2132267996511</v>
+        <v>322.1885387695346</v>
       </c>
       <c r="AC19" t="n">
-        <v>261.6111223472907</v>
+        <v>291.4393168239201</v>
       </c>
       <c r="AD19" t="n">
-        <v>211375.4579540429</v>
+        <v>235475.9174867611</v>
       </c>
       <c r="AE19" t="n">
-        <v>289213.226799651</v>
+        <v>322188.5387695346</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.483853009222576e-06</v>
+        <v>6.490153918388345e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.396158854166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>261611.1223472907</v>
+        <v>291439.3168239201</v>
       </c>
     </row>
     <row r="20">
@@ -23573,28 +23573,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>209.3261936452113</v>
+        <v>233.4266531779296</v>
       </c>
       <c r="AB20" t="n">
-        <v>286.4093329651485</v>
+        <v>319.384644935032</v>
       </c>
       <c r="AC20" t="n">
-        <v>259.0748282050625</v>
+        <v>288.9030226816918</v>
       </c>
       <c r="AD20" t="n">
-        <v>209326.1936452113</v>
+        <v>233426.6531779295</v>
       </c>
       <c r="AE20" t="n">
-        <v>286409.3329651485</v>
+        <v>319384.644935032</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.494393598585397e-06</v>
+        <v>6.509790236905269e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.383138020833333</v>
       </c>
       <c r="AH20" t="n">
-        <v>259074.8282050625</v>
+        <v>288903.0226816918</v>
       </c>
     </row>
     <row r="21">
@@ -23679,28 +23679,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>208.5465547140728</v>
+        <v>232.647014246791</v>
       </c>
       <c r="AB21" t="n">
-        <v>285.3425965843231</v>
+        <v>318.3179085542067</v>
       </c>
       <c r="AC21" t="n">
-        <v>258.1098996472488</v>
+        <v>287.9380941238782</v>
       </c>
       <c r="AD21" t="n">
-        <v>208546.5547140728</v>
+        <v>232647.014246791</v>
       </c>
       <c r="AE21" t="n">
-        <v>285342.5965843231</v>
+        <v>318317.9085542067</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.494111261370321e-06</v>
+        <v>6.509264264087851e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.383138020833333</v>
       </c>
       <c r="AH21" t="n">
-        <v>258109.8996472489</v>
+        <v>287938.0941238782</v>
       </c>
     </row>
     <row r="22">
@@ -23785,28 +23785,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>207.14889792719</v>
+        <v>231.2493574599082</v>
       </c>
       <c r="AB22" t="n">
-        <v>283.4302609082454</v>
+        <v>316.405572878129</v>
       </c>
       <c r="AC22" t="n">
-        <v>256.3800746041154</v>
+        <v>286.2082690807447</v>
       </c>
       <c r="AD22" t="n">
-        <v>207148.89792719</v>
+        <v>231249.3574599082</v>
       </c>
       <c r="AE22" t="n">
-        <v>283430.2609082454</v>
+        <v>316405.572878129</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.504087176302992e-06</v>
+        <v>6.52784863696994e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.371744791666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>256380.0746041154</v>
+        <v>286208.2690807447</v>
       </c>
     </row>
     <row r="23">
@@ -23891,28 +23891,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>205.8794427532311</v>
+        <v>229.9799022859493</v>
       </c>
       <c r="AB23" t="n">
-        <v>281.693336334826</v>
+        <v>314.6686483047094</v>
       </c>
       <c r="AC23" t="n">
-        <v>254.8089196741936</v>
+        <v>284.637114150823</v>
       </c>
       <c r="AD23" t="n">
-        <v>205879.4427532311</v>
+        <v>229979.9022859493</v>
       </c>
       <c r="AE23" t="n">
-        <v>281693.336334826</v>
+        <v>314668.6483047095</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.502487265417563e-06</v>
+        <v>6.524868124337907e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.373372395833333</v>
       </c>
       <c r="AH23" t="n">
-        <v>254808.9196741936</v>
+        <v>284637.114150823</v>
       </c>
     </row>
     <row r="24">
@@ -23997,28 +23997,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>204.1348918360761</v>
+        <v>228.2353513687943</v>
       </c>
       <c r="AB24" t="n">
-        <v>279.306364805821</v>
+        <v>312.2816767757046</v>
       </c>
       <c r="AC24" t="n">
-        <v>252.6497573577805</v>
+        <v>282.47795183441</v>
       </c>
       <c r="AD24" t="n">
-        <v>204134.8918360761</v>
+        <v>228235.3513687943</v>
       </c>
       <c r="AE24" t="n">
-        <v>279306.364805821</v>
+        <v>312281.6767757046</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.513592529210536e-06</v>
+        <v>6.545556388489666e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.3603515625</v>
       </c>
       <c r="AH24" t="n">
-        <v>252649.7573577805</v>
+        <v>282477.95183441</v>
       </c>
     </row>
     <row r="25">
@@ -24103,28 +24103,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>203.2993764750683</v>
+        <v>227.3998360077865</v>
       </c>
       <c r="AB25" t="n">
-        <v>278.1631758285545</v>
+        <v>311.1384877984382</v>
       </c>
       <c r="AC25" t="n">
-        <v>251.6156727320282</v>
+        <v>281.4438672086577</v>
       </c>
       <c r="AD25" t="n">
-        <v>203299.3764750683</v>
+        <v>227399.8360077865</v>
       </c>
       <c r="AE25" t="n">
-        <v>278163.1758285546</v>
+        <v>311138.4877984382</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.513404304400486e-06</v>
+        <v>6.545205739944721e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.3603515625</v>
       </c>
       <c r="AH25" t="n">
-        <v>251615.6727320282</v>
+        <v>281443.8672086577</v>
       </c>
     </row>
     <row r="26">
@@ -24209,28 +24209,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>203.720331526848</v>
+        <v>227.8207910595662</v>
       </c>
       <c r="AB26" t="n">
-        <v>278.7391451016254</v>
+        <v>311.714457071509</v>
       </c>
       <c r="AC26" t="n">
-        <v>252.1366723060553</v>
+        <v>281.9648667826847</v>
       </c>
       <c r="AD26" t="n">
-        <v>203720.331526848</v>
+        <v>227820.7910595662</v>
       </c>
       <c r="AE26" t="n">
-        <v>278739.1451016254</v>
+        <v>311714.457071509</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.510486819844705e-06</v>
+        <v>6.539770687498073e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.363606770833333</v>
       </c>
       <c r="AH26" t="n">
-        <v>252136.6723060553</v>
+        <v>281964.8667826847</v>
       </c>
     </row>
   </sheetData>
@@ -24506,28 +24506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.0215096260785</v>
+        <v>381.4181027279431</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.1276978100516</v>
+        <v>521.8730751314764</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.1183175278482</v>
+        <v>472.0662412943888</v>
       </c>
       <c r="AD2" t="n">
-        <v>337021.5096260785</v>
+        <v>381418.1027279431</v>
       </c>
       <c r="AE2" t="n">
-        <v>461127.6978100516</v>
+        <v>521873.0751314764</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477062636664105e-06</v>
+        <v>4.965265503274241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.689453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>417118.3175278482</v>
+        <v>472066.2412943888</v>
       </c>
     </row>
     <row r="3">
@@ -24612,28 +24612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.9686134951872</v>
+        <v>254.2096699819561</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.389690716934</v>
+        <v>347.8208854082781</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.0984640942326</v>
+        <v>314.6253482746944</v>
       </c>
       <c r="AD3" t="n">
-        <v>231968.6134951873</v>
+        <v>254209.6699819561</v>
       </c>
       <c r="AE3" t="n">
-        <v>317389.690716934</v>
+        <v>347820.885408278</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.193536382983531e-06</v>
+        <v>6.401435232672936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.188802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>287098.4640942326</v>
+        <v>314625.3482746944</v>
       </c>
     </row>
     <row r="4">
@@ -24718,28 +24718,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.2221163940261</v>
+        <v>231.4982260067812</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.2162445927699</v>
+        <v>316.7460858032657</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.3317468633054</v>
+        <v>286.5162839302195</v>
       </c>
       <c r="AD4" t="n">
-        <v>198222.1163940261</v>
+        <v>231498.2260067812</v>
       </c>
       <c r="AE4" t="n">
-        <v>271216.2445927699</v>
+        <v>316746.0858032657</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.456525112092963e-06</v>
+        <v>6.928595444558232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.794921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>245331.7468633054</v>
+        <v>286516.2839302195</v>
       </c>
     </row>
     <row r="5">
@@ -24824,28 +24824,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.229462832235</v>
+        <v>221.50557244499</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.5438551447722</v>
+        <v>303.0736963552681</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.9642310749012</v>
+        <v>274.1487681418152</v>
       </c>
       <c r="AD5" t="n">
-        <v>188229.462832235</v>
+        <v>221505.57244499</v>
       </c>
       <c r="AE5" t="n">
-        <v>257543.8551447722</v>
+        <v>303073.6963552681</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.582877807727809e-06</v>
+        <v>7.181869088750896e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.625651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>232964.2310749012</v>
+        <v>274148.7681418152</v>
       </c>
     </row>
     <row r="6">
@@ -24930,28 +24930,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>181.9211104091746</v>
+        <v>204.247418241964</v>
       </c>
       <c r="AB6" t="n">
-        <v>248.9124890546782</v>
+        <v>279.4603283986715</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.1566304502446</v>
+        <v>252.7890268814187</v>
       </c>
       <c r="AD6" t="n">
-        <v>181921.1104091746</v>
+        <v>204247.418241964</v>
       </c>
       <c r="AE6" t="n">
-        <v>248912.4890546782</v>
+        <v>279460.3283986715</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.659850118686667e-06</v>
+        <v>7.336159882473421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.527994791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>225156.6304502446</v>
+        <v>252789.0268814187</v>
       </c>
     </row>
     <row r="7">
@@ -25036,28 +25036,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>177.4939651007571</v>
+        <v>199.6496807329543</v>
       </c>
       <c r="AB7" t="n">
-        <v>242.8550735318379</v>
+        <v>273.1695011009843</v>
       </c>
       <c r="AC7" t="n">
-        <v>219.6773261632661</v>
+        <v>247.0985873117892</v>
       </c>
       <c r="AD7" t="n">
-        <v>177493.9651007571</v>
+        <v>199649.6807329543</v>
       </c>
       <c r="AE7" t="n">
-        <v>242855.0735318379</v>
+        <v>273169.5011009843</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.706990568387661e-06</v>
+        <v>7.430652789210894e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.471028645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>219677.3261632661</v>
+        <v>247098.5873117892</v>
       </c>
     </row>
     <row r="8">
@@ -25142,28 +25142,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>173.1524391640906</v>
+        <v>195.3081547962878</v>
       </c>
       <c r="AB8" t="n">
-        <v>236.9148062106872</v>
+        <v>267.2292337798335</v>
       </c>
       <c r="AC8" t="n">
-        <v>214.3039896180266</v>
+        <v>241.7252507665496</v>
       </c>
       <c r="AD8" t="n">
-        <v>173152.4391640906</v>
+        <v>195308.1547962878</v>
       </c>
       <c r="AE8" t="n">
-        <v>236914.8062106872</v>
+        <v>267229.2337798335</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.753316496279566e-06</v>
+        <v>7.523512989136489e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.415690104166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>214303.9896180266</v>
+        <v>241725.2507665496</v>
       </c>
     </row>
     <row r="9">
@@ -25248,28 +25248,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>170.1872817874458</v>
+        <v>192.3429974196431</v>
       </c>
       <c r="AB9" t="n">
-        <v>232.8577470744528</v>
+        <v>263.1721746435992</v>
       </c>
       <c r="AC9" t="n">
-        <v>210.6341305116349</v>
+        <v>238.0553916601579</v>
       </c>
       <c r="AD9" t="n">
-        <v>170187.2817874458</v>
+        <v>192342.9974196431</v>
       </c>
       <c r="AE9" t="n">
-        <v>232857.7470744528</v>
+        <v>263172.1746435992</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.777548520099948e-06</v>
+        <v>7.572086016789877e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.386393229166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>210634.1305116349</v>
+        <v>238055.3916601579</v>
       </c>
     </row>
     <row r="10">
@@ -25354,28 +25354,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>166.9131144678055</v>
+        <v>189.0688301000027</v>
       </c>
       <c r="AB10" t="n">
-        <v>228.3778869016555</v>
+        <v>258.6923144708018</v>
       </c>
       <c r="AC10" t="n">
-        <v>206.5818219062047</v>
+        <v>234.0030830547277</v>
       </c>
       <c r="AD10" t="n">
-        <v>166913.1144678055</v>
+        <v>189068.8301000027</v>
       </c>
       <c r="AE10" t="n">
-        <v>228377.8869016555</v>
+        <v>258692.3144708018</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.803104141860098e-06</v>
+        <v>7.623312193012567e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.357096354166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>206581.8219062047</v>
+        <v>234003.0830547277</v>
       </c>
     </row>
     <row r="11">
@@ -25460,28 +25460,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>164.1130691611946</v>
+        <v>186.2687847933918</v>
       </c>
       <c r="AB11" t="n">
-        <v>224.5467413838717</v>
+        <v>254.8611689530181</v>
       </c>
       <c r="AC11" t="n">
-        <v>203.1163155395905</v>
+        <v>230.5375766881135</v>
       </c>
       <c r="AD11" t="n">
-        <v>164113.0691611946</v>
+        <v>186268.7847933918</v>
       </c>
       <c r="AE11" t="n">
-        <v>224546.7413838717</v>
+        <v>254861.1689530181</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.821023621660043e-06</v>
+        <v>7.659231742873895e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.337565104166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>203116.3155395905</v>
+        <v>230537.5766881135</v>
       </c>
     </row>
     <row r="12">
@@ -25566,28 +25566,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>163.7836734445924</v>
+        <v>185.9393890767896</v>
       </c>
       <c r="AB12" t="n">
-        <v>224.0960476325034</v>
+        <v>254.4104752016498</v>
       </c>
       <c r="AC12" t="n">
-        <v>202.7086353672999</v>
+        <v>230.129896515823</v>
       </c>
       <c r="AD12" t="n">
-        <v>163783.6734445924</v>
+        <v>185939.3890767896</v>
       </c>
       <c r="AE12" t="n">
-        <v>224096.0476325034</v>
+        <v>254410.4752016498</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.818885501911186e-06</v>
+        <v>7.654945887492714e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.339192708333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>202708.6353672999</v>
+        <v>230129.896515823</v>
       </c>
     </row>
   </sheetData>
@@ -25863,28 +25863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.7813880784167</v>
+        <v>290.1917023967646</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.0254265120773</v>
+        <v>397.0530895736194</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.6693156310403</v>
+        <v>359.1588999722236</v>
       </c>
       <c r="AD2" t="n">
-        <v>247781.3880784167</v>
+        <v>290191.7023967647</v>
       </c>
       <c r="AE2" t="n">
-        <v>339025.4265120773</v>
+        <v>397053.0895736194</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.898345240412669e-06</v>
+        <v>6.063519499417202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.955403645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>306669.3156310403</v>
+        <v>359158.8999722236</v>
       </c>
     </row>
     <row r="3">
@@ -25969,28 +25969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.5036234519152</v>
+        <v>213.3540296179594</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.3412649815317</v>
+        <v>291.9203958386415</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.6399232009209</v>
+        <v>264.0599229727364</v>
       </c>
       <c r="AD3" t="n">
-        <v>181503.6234519152</v>
+        <v>213354.0296179593</v>
       </c>
       <c r="AE3" t="n">
-        <v>248341.2649815317</v>
+        <v>291920.3958386415</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.521010086228783e-06</v>
+        <v>7.36617329702692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>224639.9232009209</v>
+        <v>264059.9229727364</v>
       </c>
     </row>
     <row r="4">
@@ -26075,28 +26075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.315530059347</v>
+        <v>187.6913689276624</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.5602455504395</v>
+        <v>256.8076113255088</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.8422150979817</v>
+        <v>232.2982533324233</v>
       </c>
       <c r="AD4" t="n">
-        <v>166315.530059347</v>
+        <v>187691.3689276624</v>
       </c>
       <c r="AE4" t="n">
-        <v>227560.2455504395</v>
+        <v>256807.6113255088</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.742458595522609e-06</v>
+        <v>7.829457427398084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.612630208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>205842.2150979817</v>
+        <v>232298.2533324233</v>
       </c>
     </row>
     <row r="5">
@@ -26181,28 +26181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.656288597869</v>
+        <v>179.8615352655923</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.0805334809653</v>
+        <v>246.0944874811877</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.3626720400464</v>
+        <v>222.6075749918371</v>
       </c>
       <c r="AD5" t="n">
-        <v>158656.288597869</v>
+        <v>179861.5352655923</v>
       </c>
       <c r="AE5" t="n">
-        <v>217080.5334809653</v>
+        <v>246094.4874811877</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.848410252986465e-06</v>
+        <v>8.051114920808422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>196362.6720400465</v>
+        <v>222607.5749918371</v>
       </c>
     </row>
     <row r="6">
@@ -26287,28 +26287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.0871616459444</v>
+        <v>174.2924083136676</v>
       </c>
       <c r="AB6" t="n">
-        <v>209.4606082928048</v>
+        <v>238.4745622930272</v>
       </c>
       <c r="AC6" t="n">
-        <v>189.4699818172094</v>
+        <v>215.714884769</v>
       </c>
       <c r="AD6" t="n">
-        <v>153087.1616459444</v>
+        <v>174292.4083136676</v>
       </c>
       <c r="AE6" t="n">
-        <v>209460.6082928048</v>
+        <v>238474.5622930272</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.915332671264435e-06</v>
+        <v>8.191120805034574e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.4091796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>189469.9818172094</v>
+        <v>215714.884769</v>
       </c>
     </row>
     <row r="7">
@@ -26393,28 +26393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.2242594498337</v>
+        <v>169.429506117557</v>
       </c>
       <c r="AB7" t="n">
-        <v>202.8069709719858</v>
+        <v>231.8209249722083</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.4513583038487</v>
+        <v>209.6962612556393</v>
       </c>
       <c r="AD7" t="n">
-        <v>148224.2594498337</v>
+        <v>169429.506117557</v>
       </c>
       <c r="AE7" t="n">
-        <v>202806.9709719858</v>
+        <v>231820.9249722083</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.963588931670897e-06</v>
+        <v>8.292075919650896e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.35546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>183451.3583038487</v>
+        <v>209696.2612556393</v>
       </c>
     </row>
     <row r="8">
@@ -26499,28 +26499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.7359106672922</v>
+        <v>168.9411573350154</v>
       </c>
       <c r="AB8" t="n">
-        <v>202.138790623285</v>
+        <v>231.1527446235075</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.8469481498307</v>
+        <v>209.0918511016213</v>
       </c>
       <c r="AD8" t="n">
-        <v>147735.9106672922</v>
+        <v>168941.1573350154</v>
       </c>
       <c r="AE8" t="n">
-        <v>202138.7906232851</v>
+        <v>231152.7446235075</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.967194893986984e-06</v>
+        <v>8.299619818325521e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.3505859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>182846.9481498307</v>
+        <v>209091.8511016213</v>
       </c>
     </row>
   </sheetData>
@@ -49777,28 +49777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.2849728617982</v>
+        <v>232.0811284704797</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.4069799356643</v>
+        <v>317.5436386699395</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.1225243068093</v>
+        <v>287.2377194706706</v>
       </c>
       <c r="AD2" t="n">
-        <v>201284.9728617982</v>
+        <v>232081.1284704797</v>
       </c>
       <c r="AE2" t="n">
-        <v>275406.9799356643</v>
+        <v>317543.6386699395</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.242423227475803e-06</v>
+        <v>7.048560441366058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>249122.5243068093</v>
+        <v>287237.7194706706</v>
       </c>
     </row>
     <row r="3">
@@ -49883,28 +49883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.2385712982323</v>
+        <v>184.9493860523422</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.0360177756731</v>
+        <v>253.0559093877506</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.8950364301344</v>
+        <v>228.9046085620568</v>
       </c>
       <c r="AD3" t="n">
-        <v>154238.5712982323</v>
+        <v>184949.3860523422</v>
       </c>
       <c r="AE3" t="n">
-        <v>211036.0177756731</v>
+        <v>253055.9093877506</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.78823954867402e-06</v>
+        <v>8.235086400484828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>190895.0364301344</v>
+        <v>228904.6085620568</v>
       </c>
     </row>
     <row r="4">
@@ -49989,28 +49989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.6375713846134</v>
+        <v>163.0830904443805</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.1630178938725</v>
+        <v>223.1374790640733</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.5369333791525</v>
+        <v>201.8415512376811</v>
       </c>
       <c r="AD4" t="n">
-        <v>142637.5713846133</v>
+        <v>163083.0904443805</v>
       </c>
       <c r="AE4" t="n">
-        <v>195163.0178938725</v>
+        <v>223137.4790640734</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.977053596670429e-06</v>
+        <v>8.645540908151843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.490559895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>176536.9333791525</v>
+        <v>201841.5512376811</v>
       </c>
     </row>
     <row r="5">
@@ -50095,28 +50095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.7347429926472</v>
+        <v>156.1802620524143</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.7182635566932</v>
+        <v>213.692724726894</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.9935731401146</v>
+        <v>193.2981909986432</v>
       </c>
       <c r="AD5" t="n">
-        <v>135734.7429926472</v>
+        <v>156180.2620524143</v>
       </c>
       <c r="AE5" t="n">
-        <v>185718.2635566932</v>
+        <v>213692.724726894</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.069979511053321e-06</v>
+        <v>8.847548443302317e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>167993.5731401146</v>
+        <v>193298.1909986432</v>
       </c>
     </row>
     <row r="6">
@@ -50201,28 +50201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.3232739676191</v>
+        <v>155.7687930273862</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.1552734839178</v>
+        <v>213.1297346541187</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.4843140497232</v>
+        <v>192.7889319082518</v>
       </c>
       <c r="AD6" t="n">
-        <v>135323.2739676191</v>
+        <v>155768.7930273862</v>
       </c>
       <c r="AE6" t="n">
-        <v>185155.2734839178</v>
+        <v>213129.7346541187</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.082267235269241e-06</v>
+        <v>8.874260183487502e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>167484.3140497232</v>
+        <v>192788.9319082518</v>
       </c>
     </row>
   </sheetData>
@@ -50498,28 +50498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.8550921320505</v>
+        <v>148.3068833006002</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.9910246884828</v>
+        <v>202.9200205697115</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.3399514551081</v>
+        <v>183.5536186066335</v>
       </c>
       <c r="AD2" t="n">
-        <v>119855.0921320505</v>
+        <v>148306.8833006002</v>
       </c>
       <c r="AE2" t="n">
-        <v>163991.0246884828</v>
+        <v>202920.0205697115</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.997992439955044e-06</v>
+        <v>9.509332818394446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.793294270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>148339.9514551081</v>
+        <v>183553.6186066335</v>
       </c>
     </row>
     <row r="3">
@@ -50604,28 +50604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.7984880005588</v>
+        <v>129.9085835372113</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.5993793666067</v>
+        <v>177.7466551577551</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.1309473709643</v>
+        <v>160.782763858546</v>
       </c>
       <c r="AD3" t="n">
-        <v>110798.4880005588</v>
+        <v>129908.5835372113</v>
       </c>
       <c r="AE3" t="n">
-        <v>151599.3793666066</v>
+        <v>177746.6551577551</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.220783488977044e-06</v>
+        <v>1.003924733572486e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.541015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>137130.9473709643</v>
+        <v>160782.763858546</v>
       </c>
     </row>
   </sheetData>
@@ -50901,28 +50901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>442.4961550600315</v>
+        <v>488.5891802646458</v>
       </c>
       <c r="AB2" t="n">
-        <v>605.4427609057352</v>
+        <v>668.5092714714448</v>
       </c>
       <c r="AC2" t="n">
-        <v>547.660153549143</v>
+        <v>604.7076848608647</v>
       </c>
       <c r="AD2" t="n">
-        <v>442496.1550600315</v>
+        <v>488589.1802646458</v>
       </c>
       <c r="AE2" t="n">
-        <v>605442.7609057352</v>
+        <v>668509.2714714448</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.132412953022077e-06</v>
+        <v>4.138114079345402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.516276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>547660.153549143</v>
+        <v>604707.6848608647</v>
       </c>
     </row>
     <row r="3">
@@ -51007,28 +51007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.426300220893</v>
+        <v>305.8254769237615</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.377438445476</v>
+        <v>418.4439095949111</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.9336969517475</v>
+        <v>378.5082101528876</v>
       </c>
       <c r="AD3" t="n">
-        <v>271426.300220893</v>
+        <v>305825.4769237615</v>
       </c>
       <c r="AE3" t="n">
-        <v>371377.438445476</v>
+        <v>418443.9095949112</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.926134593428374e-06</v>
+        <v>5.678392987608262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.476888020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>335933.6969517475</v>
+        <v>378508.2101528876</v>
       </c>
     </row>
     <row r="4">
@@ -51113,28 +51113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.7984561984061</v>
+        <v>264.2828842472981</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.4203857628966</v>
+        <v>361.6035015651324</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.4125454375619</v>
+        <v>327.0925708894574</v>
       </c>
       <c r="AD4" t="n">
-        <v>229798.4561984061</v>
+        <v>264282.8842472981</v>
       </c>
       <c r="AE4" t="n">
-        <v>314420.3857628966</v>
+        <v>361603.5015651324</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.208860999086746e-06</v>
+        <v>6.227045685576335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.9951171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>284412.5454375619</v>
+        <v>327092.5708894574</v>
       </c>
     </row>
     <row r="5">
@@ -51219,28 +51219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.4577220395101</v>
+        <v>250.9421500883987</v>
       </c>
       <c r="AB5" t="n">
-        <v>296.1670047350511</v>
+        <v>343.3501205371111</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.901241476227</v>
+        <v>310.5812669280724</v>
       </c>
       <c r="AD5" t="n">
-        <v>216457.7220395101</v>
+        <v>250942.1500883987</v>
       </c>
       <c r="AE5" t="n">
-        <v>296167.0047350511</v>
+        <v>343350.1205371111</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.354310982074352e-06</v>
+        <v>6.509302751023511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.778645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>267901.2414762269</v>
+        <v>310581.2669280724</v>
       </c>
     </row>
     <row r="6">
@@ -51325,28 +51325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.7170204456724</v>
+        <v>242.2014484945611</v>
       </c>
       <c r="AB6" t="n">
-        <v>284.2075912018292</v>
+        <v>331.3907070038892</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.0832175854697</v>
+        <v>299.7632430373151</v>
       </c>
       <c r="AD6" t="n">
-        <v>207717.0204456724</v>
+        <v>242201.4484945611</v>
       </c>
       <c r="AE6" t="n">
-        <v>284207.5912018292</v>
+        <v>331390.7070038893</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.452295229246096e-06</v>
+        <v>6.69944884453735e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.6435546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>257083.2175854697</v>
+        <v>299763.2430373151</v>
       </c>
     </row>
     <row r="7">
@@ -51431,28 +51431,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>202.3334441797287</v>
+        <v>225.4652976366072</v>
       </c>
       <c r="AB7" t="n">
-        <v>276.8415446481463</v>
+        <v>308.4915670531824</v>
       </c>
       <c r="AC7" t="n">
-        <v>250.4201761765567</v>
+        <v>279.0495648643516</v>
       </c>
       <c r="AD7" t="n">
-        <v>202333.4441797287</v>
+        <v>225465.2976366072</v>
       </c>
       <c r="AE7" t="n">
-        <v>276841.5446481463</v>
+        <v>308491.5670531824</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.51010101124591e-06</v>
+        <v>6.81162548463044e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.567057291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>250420.1761765566</v>
+        <v>279049.5648643516</v>
       </c>
     </row>
     <row r="8">
@@ -51537,28 +51537,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>198.6763677578202</v>
+        <v>221.8082212146987</v>
       </c>
       <c r="AB8" t="n">
-        <v>271.8377713488685</v>
+        <v>303.4877937539046</v>
       </c>
       <c r="AC8" t="n">
-        <v>245.8939559781204</v>
+        <v>274.5233446659154</v>
       </c>
       <c r="AD8" t="n">
-        <v>198676.3677578202</v>
+        <v>221808.2212146987</v>
       </c>
       <c r="AE8" t="n">
-        <v>271837.7713488685</v>
+        <v>303487.7937539046</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.546931270986848e-06</v>
+        <v>6.883097483599461e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.518229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>245893.9559781204</v>
+        <v>274523.3446659154</v>
       </c>
     </row>
     <row r="9">
@@ -51643,28 +51643,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>194.7489448073331</v>
+        <v>217.7102060636194</v>
       </c>
       <c r="AB9" t="n">
-        <v>266.4640980023426</v>
+        <v>297.8807086325319</v>
       </c>
       <c r="AC9" t="n">
-        <v>241.0331384737874</v>
+        <v>269.4513918789313</v>
       </c>
       <c r="AD9" t="n">
-        <v>194748.9448073331</v>
+        <v>217710.2060636193</v>
       </c>
       <c r="AE9" t="n">
-        <v>266464.0980023426</v>
+        <v>297880.7086325319</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.585928016594899e-06</v>
+        <v>6.958773717801953e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.469401041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>241033.1384737874</v>
+        <v>269451.3918789313</v>
       </c>
     </row>
     <row r="10">
@@ -51749,28 +51749,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>191.7946488457854</v>
+        <v>214.7559101020716</v>
       </c>
       <c r="AB10" t="n">
-        <v>262.4218999334157</v>
+        <v>293.838510563605</v>
       </c>
       <c r="AC10" t="n">
-        <v>237.3767221152969</v>
+        <v>265.7949755204409</v>
       </c>
       <c r="AD10" t="n">
-        <v>191794.6488457854</v>
+        <v>214755.9101020716</v>
       </c>
       <c r="AE10" t="n">
-        <v>262421.8999334157</v>
+        <v>293838.510563605</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.61261518341253e-06</v>
+        <v>7.010562251814265e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.436848958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>237376.7221152969</v>
+        <v>265794.9755204408</v>
       </c>
     </row>
     <row r="11">
@@ -51855,28 +51855,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>188.7712208597863</v>
+        <v>211.7324821160726</v>
       </c>
       <c r="AB11" t="n">
-        <v>258.2851123787449</v>
+        <v>289.7017230089342</v>
       </c>
       <c r="AC11" t="n">
-        <v>233.6347437588249</v>
+        <v>262.0529971639688</v>
       </c>
       <c r="AD11" t="n">
-        <v>188771.2208597863</v>
+        <v>211732.4821160726</v>
       </c>
       <c r="AE11" t="n">
-        <v>258285.1123787449</v>
+        <v>289701.7230089342</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.638219107296604e-06</v>
+        <v>7.060248668209841e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.405924479166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>233634.7437588249</v>
+        <v>262052.9971639688</v>
       </c>
     </row>
     <row r="12">
@@ -51961,28 +51961,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>186.8535924303381</v>
+        <v>209.8148536866244</v>
       </c>
       <c r="AB12" t="n">
-        <v>255.6613285617797</v>
+        <v>287.077939191969</v>
       </c>
       <c r="AC12" t="n">
-        <v>231.2613701868462</v>
+        <v>259.6796235919902</v>
       </c>
       <c r="AD12" t="n">
-        <v>186853.5924303381</v>
+        <v>209814.8536866244</v>
       </c>
       <c r="AE12" t="n">
-        <v>255661.3285617797</v>
+        <v>287077.939191969</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.645112471419239e-06</v>
+        <v>7.073625780316343e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.397786458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>231261.3701868462</v>
+        <v>259679.6235919902</v>
       </c>
     </row>
     <row r="13">
@@ -52067,28 +52067,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>184.3308349911004</v>
+        <v>207.2920962473866</v>
       </c>
       <c r="AB13" t="n">
-        <v>252.209580537213</v>
+        <v>283.6261911674023</v>
       </c>
       <c r="AC13" t="n">
-        <v>228.1390521491843</v>
+        <v>256.5573055543283</v>
       </c>
       <c r="AD13" t="n">
-        <v>184330.8349911004</v>
+        <v>207292.0962473866</v>
       </c>
       <c r="AE13" t="n">
-        <v>252209.580537213</v>
+        <v>283626.1911674023</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.666284946938762e-06</v>
+        <v>7.114712624643454e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.371744791666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>228139.0521491843</v>
+        <v>256557.3055543282</v>
       </c>
     </row>
     <row r="14">
@@ -52173,28 +52173,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>181.2907545896988</v>
+        <v>204.2520158459851</v>
       </c>
       <c r="AB14" t="n">
-        <v>248.0500084131359</v>
+        <v>279.4666190433252</v>
       </c>
       <c r="AC14" t="n">
-        <v>224.3764637506316</v>
+        <v>252.7947171557755</v>
       </c>
       <c r="AD14" t="n">
-        <v>181290.7545896989</v>
+        <v>204252.0158459852</v>
       </c>
       <c r="AE14" t="n">
-        <v>248050.0084131359</v>
+        <v>279466.6190433252</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.686078749633758e-06</v>
+        <v>7.153124046549264e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>224376.4637506316</v>
+        <v>252794.7171557756</v>
       </c>
     </row>
     <row r="15">
@@ -52279,28 +52279,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>179.4723907358712</v>
+        <v>202.4336519921575</v>
       </c>
       <c r="AB15" t="n">
-        <v>245.5620427677787</v>
+        <v>276.9786533979679</v>
       </c>
       <c r="AC15" t="n">
-        <v>222.1259460545848</v>
+        <v>250.5441994597287</v>
       </c>
       <c r="AD15" t="n">
-        <v>179472.3907358712</v>
+        <v>202433.6519921575</v>
       </c>
       <c r="AE15" t="n">
-        <v>245562.0427677787</v>
+        <v>276978.6533979679</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.694449263211243e-06</v>
+        <v>7.169367682678588e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.339192708333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>222125.9460545848</v>
+        <v>250544.1994597287</v>
       </c>
     </row>
     <row r="16">
@@ -52385,28 +52385,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>178.6682287302114</v>
+        <v>201.6294899864977</v>
       </c>
       <c r="AB16" t="n">
-        <v>244.4617528345116</v>
+        <v>275.8783634647009</v>
       </c>
       <c r="AC16" t="n">
-        <v>221.1306662482818</v>
+        <v>249.5489196534257</v>
       </c>
       <c r="AD16" t="n">
-        <v>178668.2287302114</v>
+        <v>201629.4899864977</v>
       </c>
       <c r="AE16" t="n">
-        <v>244461.7528345116</v>
+        <v>275878.3634647009</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.691298011040896e-06</v>
+        <v>7.163252431429902e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>221130.6662482817</v>
+        <v>249548.9196534257</v>
       </c>
     </row>
     <row r="17">
@@ -52491,28 +52491,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>179.1656645129413</v>
+        <v>202.1269257692276</v>
       </c>
       <c r="AB17" t="n">
-        <v>245.1423664177602</v>
+        <v>276.5589770479494</v>
       </c>
       <c r="AC17" t="n">
-        <v>221.7463230263925</v>
+        <v>250.1645764315364</v>
       </c>
       <c r="AD17" t="n">
-        <v>179165.6645129413</v>
+        <v>202126.9257692276</v>
       </c>
       <c r="AE17" t="n">
-        <v>245142.3664177602</v>
+        <v>276558.9770479494</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.689525431695075e-06</v>
+        <v>7.159812602602515e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.344075520833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>221746.3230263925</v>
+        <v>250164.5764315364</v>
       </c>
     </row>
   </sheetData>
@@ -52788,28 +52788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>621.1520762035036</v>
+        <v>681.0008888695543</v>
       </c>
       <c r="AB2" t="n">
-        <v>849.887673957209</v>
+        <v>931.7754597901684</v>
       </c>
       <c r="AC2" t="n">
-        <v>768.7755871795742</v>
+        <v>842.8481176628652</v>
       </c>
       <c r="AD2" t="n">
-        <v>621152.0762035036</v>
+        <v>681000.8888695543</v>
       </c>
       <c r="AE2" t="n">
-        <v>849887.673957209</v>
+        <v>931775.4597901683</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.74407915044694e-06</v>
+        <v>3.272576565085617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.855794270833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>768775.5871795743</v>
+        <v>842848.1176628652</v>
       </c>
     </row>
     <row r="3">
@@ -52894,28 +52894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.3968310480391</v>
+        <v>365.3573231604125</v>
       </c>
       <c r="AB3" t="n">
-        <v>450.6952762024996</v>
+        <v>499.8980079755937</v>
       </c>
       <c r="AC3" t="n">
-        <v>407.6815515965253</v>
+        <v>452.1884437056631</v>
       </c>
       <c r="AD3" t="n">
-        <v>329396.8310480391</v>
+        <v>365357.3231604125</v>
       </c>
       <c r="AE3" t="n">
-        <v>450695.2762024996</v>
+        <v>499898.0079755937</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.610567355612128e-06</v>
+        <v>4.898448299989407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.916341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>407681.5515965252</v>
+        <v>452188.4437056631</v>
       </c>
     </row>
     <row r="4">
@@ -53000,28 +53000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>283.0664588309235</v>
+        <v>307.0402097477235</v>
       </c>
       <c r="AB4" t="n">
-        <v>387.3040169832748</v>
+        <v>420.1059606348859</v>
       </c>
       <c r="AC4" t="n">
-        <v>350.3402651869921</v>
+        <v>380.0116373743106</v>
       </c>
       <c r="AD4" t="n">
-        <v>283066.4588309235</v>
+        <v>307040.2097477235</v>
       </c>
       <c r="AE4" t="n">
-        <v>387304.0169832748</v>
+        <v>420105.9606348859</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.939284379234099e-06</v>
+        <v>5.515250368733984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.255533854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>350340.2651869921</v>
+        <v>380011.6373743106</v>
       </c>
     </row>
     <row r="5">
@@ -53106,28 +53106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.9411320504572</v>
+        <v>287.8162833082621</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.7169717295725</v>
+        <v>393.8029363806362</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.8176677611135</v>
+        <v>356.21893683836</v>
       </c>
       <c r="AD5" t="n">
-        <v>251941.1320504572</v>
+        <v>287816.2833082621</v>
       </c>
       <c r="AE5" t="n">
-        <v>344716.9717295726</v>
+        <v>393802.9363806362</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.108197861349314e-06</v>
+        <v>5.832198313989568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.969075520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>311817.6677611135</v>
+        <v>356218.93683836</v>
       </c>
     </row>
     <row r="6">
@@ -53212,28 +53212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.7409659102294</v>
+        <v>277.6161171680341</v>
       </c>
       <c r="AB6" t="n">
-        <v>330.7606544169491</v>
+        <v>379.8466190680055</v>
       </c>
       <c r="AC6" t="n">
-        <v>299.1933217849879</v>
+        <v>343.5945908622325</v>
       </c>
       <c r="AD6" t="n">
-        <v>241740.9659102294</v>
+        <v>277616.1171680341</v>
       </c>
       <c r="AE6" t="n">
-        <v>330760.6544169491</v>
+        <v>379846.6190680055</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.206888884607643e-06</v>
+        <v>6.017381383127662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.816080729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>299193.3217849879</v>
+        <v>343594.5908622325</v>
       </c>
     </row>
     <row r="7">
@@ -53318,28 +53318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>234.3130128209096</v>
+        <v>270.1881640787144</v>
       </c>
       <c r="AB7" t="n">
-        <v>320.5974013019845</v>
+        <v>369.6833659530356</v>
       </c>
       <c r="AC7" t="n">
-        <v>290.000035283097</v>
+        <v>334.40130436034</v>
       </c>
       <c r="AD7" t="n">
-        <v>234313.0128209096</v>
+        <v>270188.1640787143</v>
       </c>
       <c r="AE7" t="n">
-        <v>320597.4013019844</v>
+        <v>369683.3659530356</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.280527571192703e-06</v>
+        <v>6.155556442407625e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.708658854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>290000.0352830969</v>
+        <v>334401.30436034</v>
       </c>
     </row>
     <row r="8">
@@ -53424,28 +53424,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>229.2185351965467</v>
+        <v>265.0936864543513</v>
       </c>
       <c r="AB8" t="n">
-        <v>313.626912263844</v>
+        <v>362.7128769148916</v>
       </c>
       <c r="AC8" t="n">
-        <v>283.6947999356116</v>
+        <v>328.0960690128536</v>
       </c>
       <c r="AD8" t="n">
-        <v>229218.5351965467</v>
+        <v>265093.6864543513</v>
       </c>
       <c r="AE8" t="n">
-        <v>313626.912263844</v>
+        <v>362712.8769148916</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.330537349324568e-06</v>
+        <v>6.249394401480488e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.637044270833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>283694.7999356116</v>
+        <v>328096.0690128536</v>
       </c>
     </row>
     <row r="9">
@@ -53530,28 +53530,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>225.5717893347627</v>
+        <v>249.630791597583</v>
       </c>
       <c r="AB9" t="n">
-        <v>308.6372736926808</v>
+        <v>341.5558619969244</v>
       </c>
       <c r="AC9" t="n">
-        <v>279.1813654666769</v>
+        <v>308.9582499047028</v>
       </c>
       <c r="AD9" t="n">
-        <v>225571.7893347627</v>
+        <v>249630.791597583</v>
       </c>
       <c r="AE9" t="n">
-        <v>308637.2736926808</v>
+        <v>341555.8619969244</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.364130255318268e-06</v>
+        <v>6.312427869244801e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.591471354166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>279181.3654666769</v>
+        <v>308958.2499047028</v>
       </c>
     </row>
     <row r="10">
@@ -53636,28 +53636,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>221.9187348474765</v>
+        <v>245.9777371102968</v>
       </c>
       <c r="AB10" t="n">
-        <v>303.6390033817885</v>
+        <v>336.5575916860321</v>
       </c>
       <c r="AC10" t="n">
-        <v>274.6601230591382</v>
+        <v>304.4370074971641</v>
       </c>
       <c r="AD10" t="n">
-        <v>221918.7348474765</v>
+        <v>245977.7371102968</v>
       </c>
       <c r="AE10" t="n">
-        <v>303639.0033817886</v>
+        <v>336557.5916860321</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.401234284254812e-06</v>
+        <v>6.382049580814988e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.541015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>274660.1230591382</v>
+        <v>304437.0074971641</v>
       </c>
     </row>
     <row r="11">
@@ -53742,28 +53742,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>218.667214082545</v>
+        <v>242.7262163453652</v>
       </c>
       <c r="AB11" t="n">
-        <v>299.1901292242393</v>
+        <v>332.1087175284828</v>
       </c>
       <c r="AC11" t="n">
-        <v>270.6358432071499</v>
+        <v>300.4127276451758</v>
       </c>
       <c r="AD11" t="n">
-        <v>218667.214082545</v>
+        <v>242726.2163453652</v>
       </c>
       <c r="AE11" t="n">
-        <v>299190.1292242393</v>
+        <v>332108.7175284828</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.428564106080196e-06</v>
+        <v>6.433331046114769e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>270635.8432071499</v>
+        <v>300412.7276451758</v>
       </c>
     </row>
     <row r="12">
@@ -53848,28 +53848,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>216.4065012029486</v>
+        <v>240.2949112651766</v>
       </c>
       <c r="AB12" t="n">
-        <v>296.0969221267637</v>
+        <v>328.7820986561605</v>
       </c>
       <c r="AC12" t="n">
-        <v>267.8378474537131</v>
+        <v>297.4035966090879</v>
       </c>
       <c r="AD12" t="n">
-        <v>216406.5012029486</v>
+        <v>240294.9112651766</v>
       </c>
       <c r="AE12" t="n">
-        <v>296096.9221267637</v>
+        <v>328782.0986561605</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.449061472449233e-06</v>
+        <v>6.471792145089603e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.4775390625</v>
       </c>
       <c r="AH12" t="n">
-        <v>267837.8474537131</v>
+        <v>297403.5966090879</v>
       </c>
     </row>
     <row r="13">
@@ -53954,28 +53954,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>214.1739839927206</v>
+        <v>238.0623940549487</v>
       </c>
       <c r="AB13" t="n">
-        <v>293.0422935880234</v>
+        <v>325.72747011742</v>
       </c>
       <c r="AC13" t="n">
-        <v>265.0747483755109</v>
+        <v>294.6404975308858</v>
       </c>
       <c r="AD13" t="n">
-        <v>214173.9839927206</v>
+        <v>238062.3940549487</v>
       </c>
       <c r="AE13" t="n">
-        <v>293042.2935880233</v>
+        <v>325727.47011742</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.46500386851404e-06</v>
+        <v>6.501706333181142e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.4580078125</v>
       </c>
       <c r="AH13" t="n">
-        <v>265074.7483755109</v>
+        <v>294640.4975308858</v>
       </c>
     </row>
     <row r="14">
@@ -54060,28 +54060,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>212.5957279179406</v>
+        <v>236.4841379801687</v>
       </c>
       <c r="AB14" t="n">
-        <v>290.8828539987664</v>
+        <v>323.5680305281632</v>
       </c>
       <c r="AC14" t="n">
-        <v>263.1214026698596</v>
+        <v>292.6871518252344</v>
       </c>
       <c r="AD14" t="n">
-        <v>212595.7279179406</v>
+        <v>236484.1379801687</v>
       </c>
       <c r="AE14" t="n">
-        <v>290882.8539987665</v>
+        <v>323568.0305281632</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.474113809122502e-06</v>
+        <v>6.518800154947736e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.444986979166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>263121.4026698596</v>
+        <v>292687.1518252344</v>
       </c>
     </row>
     <row r="15">
@@ -54166,28 +54166,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>209.86549832548</v>
+        <v>233.7539083877081</v>
       </c>
       <c r="AB15" t="n">
-        <v>287.147233421135</v>
+        <v>319.8324099505317</v>
       </c>
       <c r="AC15" t="n">
-        <v>259.7423044771796</v>
+        <v>289.3080536325545</v>
       </c>
       <c r="AD15" t="n">
-        <v>209865.49832548</v>
+        <v>233753.9083877081</v>
       </c>
       <c r="AE15" t="n">
-        <v>287147.233421135</v>
+        <v>319832.4099505317</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.49537033720891e-06</v>
+        <v>6.558685739069786e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.4189453125</v>
       </c>
       <c r="AH15" t="n">
-        <v>259742.3044771797</v>
+        <v>289308.0536325545</v>
       </c>
     </row>
     <row r="16">
@@ -54272,28 +54272,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>208.467478489494</v>
+        <v>232.355888551722</v>
       </c>
       <c r="AB16" t="n">
-        <v>285.2344010052576</v>
+        <v>317.9195775346543</v>
       </c>
       <c r="AC16" t="n">
-        <v>258.0120301023958</v>
+        <v>287.5777792577706</v>
       </c>
       <c r="AD16" t="n">
-        <v>208467.478489494</v>
+        <v>232355.888551722</v>
       </c>
       <c r="AE16" t="n">
-        <v>285234.4010052576</v>
+        <v>317919.5775346543</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.5037211161e-06</v>
+        <v>6.574355075689164e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.407552083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>258012.0301023958</v>
+        <v>287577.7792577706</v>
       </c>
     </row>
     <row r="17">
@@ -54378,28 +54378,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>206.7492387701487</v>
+        <v>230.6376488323767</v>
       </c>
       <c r="AB17" t="n">
-        <v>282.883429617864</v>
+        <v>315.5686061472607</v>
       </c>
       <c r="AC17" t="n">
-        <v>255.8854321246052</v>
+        <v>285.4511812799801</v>
       </c>
       <c r="AD17" t="n">
-        <v>206749.2387701487</v>
+        <v>230637.6488323767</v>
       </c>
       <c r="AE17" t="n">
-        <v>282883.429617864</v>
+        <v>315568.6061472606</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.51406469449919e-06</v>
+        <v>6.593763685819983e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH17" t="n">
-        <v>255885.4321246053</v>
+        <v>285451.1812799801</v>
       </c>
     </row>
     <row r="18">
@@ -54484,28 +54484,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>205.0913301607563</v>
+        <v>228.9797402229843</v>
       </c>
       <c r="AB18" t="n">
-        <v>280.6150059167287</v>
+        <v>313.3001824461253</v>
       </c>
       <c r="AC18" t="n">
-        <v>253.8335035977529</v>
+        <v>283.3992527531278</v>
       </c>
       <c r="AD18" t="n">
-        <v>205091.3301607562</v>
+        <v>228979.7402229843</v>
       </c>
       <c r="AE18" t="n">
-        <v>280615.0059167287</v>
+        <v>313300.1824461254</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.522320578175608e-06</v>
+        <v>6.609254961795959e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.384765625</v>
       </c>
       <c r="AH18" t="n">
-        <v>253833.5035977529</v>
+        <v>283399.2527531278</v>
       </c>
     </row>
     <row r="19">
@@ -54590,28 +54590,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>203.63207129665</v>
+        <v>227.5204813588781</v>
       </c>
       <c r="AB19" t="n">
-        <v>278.618383560902</v>
+        <v>311.3035600902987</v>
       </c>
       <c r="AC19" t="n">
-        <v>252.0274360772886</v>
+        <v>281.5931852326635</v>
       </c>
       <c r="AD19" t="n">
-        <v>203632.07129665</v>
+        <v>227520.4813588781</v>
       </c>
       <c r="AE19" t="n">
-        <v>278618.383560902</v>
+        <v>311303.5600902987</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.522605263819622e-06</v>
+        <v>6.609789143726164e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.384765625</v>
       </c>
       <c r="AH19" t="n">
-        <v>252027.4360772886</v>
+        <v>281593.1852326635</v>
       </c>
     </row>
     <row r="20">
@@ -54696,28 +54696,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>202.7026049205714</v>
+        <v>226.5910149827995</v>
       </c>
       <c r="AB20" t="n">
-        <v>277.3466466599895</v>
+        <v>310.0318231893862</v>
       </c>
       <c r="AC20" t="n">
-        <v>250.8770719613048</v>
+        <v>280.4428211166796</v>
       </c>
       <c r="AD20" t="n">
-        <v>202702.6049205714</v>
+        <v>226591.0149827995</v>
       </c>
       <c r="AE20" t="n">
-        <v>277346.6466599894</v>
+        <v>310031.8231893862</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.531715204428083e-06</v>
+        <v>6.626882965492757e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.373372395833333</v>
       </c>
       <c r="AH20" t="n">
-        <v>250877.0719613048</v>
+        <v>280442.8211166796</v>
       </c>
     </row>
     <row r="21">
@@ -54802,28 +54802,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>200.9961672429997</v>
+        <v>224.8845773052277</v>
       </c>
       <c r="AB21" t="n">
-        <v>275.0118233468197</v>
+        <v>307.6969998762164</v>
       </c>
       <c r="AC21" t="n">
-        <v>248.7650809081981</v>
+        <v>278.330830063573</v>
       </c>
       <c r="AD21" t="n">
-        <v>200996.1672429997</v>
+        <v>224884.5773052277</v>
       </c>
       <c r="AE21" t="n">
-        <v>275011.8233468197</v>
+        <v>307696.9998762164</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.540635354607202e-06</v>
+        <v>6.643620665972547e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>248765.0809081981</v>
+        <v>278330.830063573</v>
       </c>
     </row>
     <row r="22">
@@ -54908,28 +54908,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>199.5568258524245</v>
+        <v>223.4452359146525</v>
       </c>
       <c r="AB22" t="n">
-        <v>273.0424529569752</v>
+        <v>305.7276294863719</v>
       </c>
       <c r="AC22" t="n">
-        <v>246.9836644643311</v>
+        <v>276.5494136197059</v>
       </c>
       <c r="AD22" t="n">
-        <v>199556.8258524245</v>
+        <v>223445.2359146525</v>
       </c>
       <c r="AE22" t="n">
-        <v>273042.4529569752</v>
+        <v>305727.6294863719</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.542058782827274e-06</v>
+        <v>6.646291575623578e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.3603515625</v>
       </c>
       <c r="AH22" t="n">
-        <v>246983.6644643311</v>
+        <v>276549.4136197059</v>
       </c>
     </row>
     <row r="23">
@@ -55014,28 +55014,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>198.4304646577022</v>
+        <v>222.3188747199303</v>
       </c>
       <c r="AB23" t="n">
-        <v>271.5013158788082</v>
+        <v>304.1864924082048</v>
       </c>
       <c r="AC23" t="n">
-        <v>245.5896113459043</v>
+        <v>275.1553605012791</v>
       </c>
       <c r="AD23" t="n">
-        <v>198430.4646577022</v>
+        <v>222318.8747199303</v>
       </c>
       <c r="AE23" t="n">
-        <v>271501.3158788081</v>
+        <v>304186.4924082048</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.550789142577049e-06</v>
+        <v>6.662673154816562e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>245589.6113459043</v>
+        <v>275155.3605012791</v>
       </c>
     </row>
     <row r="24">
@@ -55120,28 +55120,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>198.6922072227129</v>
+        <v>222.5806172849409</v>
       </c>
       <c r="AB24" t="n">
-        <v>271.8594436035225</v>
+        <v>304.5446201329192</v>
       </c>
       <c r="AC24" t="n">
-        <v>245.9135598632075</v>
+        <v>275.4793090185823</v>
       </c>
       <c r="AD24" t="n">
-        <v>198692.2072227129</v>
+        <v>222580.6172849409</v>
       </c>
       <c r="AE24" t="n">
-        <v>271859.4436035225</v>
+        <v>304544.6201329192</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.550978933006392e-06</v>
+        <v>6.663029276103366e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>245913.5598632075</v>
+        <v>275479.3090185823</v>
       </c>
     </row>
   </sheetData>
@@ -55417,28 +55417,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.26894839132343</v>
+        <v>125.6641864264516</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.455910508984</v>
+        <v>171.9392837812315</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.6236271200981</v>
+        <v>155.529639855499</v>
       </c>
       <c r="AD2" t="n">
-        <v>98268.94839132343</v>
+        <v>125664.1864264516</v>
       </c>
       <c r="AE2" t="n">
-        <v>134455.910508984</v>
+        <v>171939.2837812315</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.180046595256464e-06</v>
+        <v>1.045397931295796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.747721354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>121623.6271200981</v>
+        <v>155529.639855499</v>
       </c>
     </row>
   </sheetData>
@@ -55714,28 +55714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.6897697140604</v>
+        <v>316.0463592910687</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.156858432118</v>
+        <v>432.4285717633668</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.1117126449283</v>
+        <v>391.1581957915826</v>
       </c>
       <c r="AD2" t="n">
-        <v>283689.7697140605</v>
+        <v>316046.3592910686</v>
       </c>
       <c r="AE2" t="n">
-        <v>388156.858432118</v>
+        <v>432428.5717633668</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.74489887601282e-06</v>
+        <v>5.652524849583091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.1962890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>351111.7126449283</v>
+        <v>391158.1957915826</v>
       </c>
     </row>
     <row r="3">
@@ -55820,28 +55820,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.3626603763913</v>
+        <v>226.719160444848</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.935566602262</v>
+        <v>310.2071574639396</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.5550493687318</v>
+        <v>280.601421734153</v>
       </c>
       <c r="AD3" t="n">
-        <v>194362.6603763913</v>
+        <v>226719.160444848</v>
       </c>
       <c r="AE3" t="n">
-        <v>265935.566602262</v>
+        <v>310207.1574639396</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.408026479131208e-06</v>
+        <v>7.018092553307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.991861979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>240555.0493687318</v>
+        <v>280601.421734153</v>
       </c>
     </row>
     <row r="4">
@@ -55926,28 +55926,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.7743016461763</v>
+        <v>210.130801714633</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.2386423608558</v>
+        <v>287.5102332225334</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.0242877215849</v>
+        <v>260.0706600870062</v>
       </c>
       <c r="AD4" t="n">
-        <v>177774.3016461763</v>
+        <v>210130.801714633</v>
       </c>
       <c r="AE4" t="n">
-        <v>243238.6423608558</v>
+        <v>287510.2332225334</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.632308880438073e-06</v>
+        <v>7.479953592265472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.6826171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>220024.2877215849</v>
+        <v>260070.6600870062</v>
       </c>
     </row>
     <row r="5">
@@ -56032,28 +56032,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.6907635209132</v>
+        <v>190.4039983241704</v>
       </c>
       <c r="AB5" t="n">
-        <v>230.8101447604576</v>
+        <v>260.519150538572</v>
       </c>
       <c r="AC5" t="n">
-        <v>208.7819484886588</v>
+        <v>235.655568452171</v>
       </c>
       <c r="AD5" t="n">
-        <v>168690.7635209132</v>
+        <v>190403.9983241704</v>
       </c>
       <c r="AE5" t="n">
-        <v>230810.1447604576</v>
+        <v>260519.150538572</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.75657345413512e-06</v>
+        <v>7.735849573310029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.527994791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>208781.9484886588</v>
+        <v>235655.568452171</v>
       </c>
     </row>
     <row r="6">
@@ -56138,28 +56138,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.4513068977365</v>
+        <v>184.9939495004014</v>
       </c>
       <c r="AB6" t="n">
-        <v>223.6412890601182</v>
+        <v>253.1168830633858</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.2972783148054</v>
+        <v>228.9597629956665</v>
       </c>
       <c r="AD6" t="n">
-        <v>163451.3068977364</v>
+        <v>184993.9495004014</v>
       </c>
       <c r="AE6" t="n">
-        <v>223641.2890601182</v>
+        <v>253116.8830633858</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.818339949555604e-06</v>
+        <v>7.863044295595426e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.454752604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>202297.2783148054</v>
+        <v>228959.7629956665</v>
       </c>
     </row>
     <row r="7">
@@ -56244,28 +56244,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>158.7582547060099</v>
+        <v>180.3008973086749</v>
       </c>
       <c r="AB7" t="n">
-        <v>217.2200480085508</v>
+        <v>246.6956420118184</v>
       </c>
       <c r="AC7" t="n">
-        <v>196.4888714969291</v>
+        <v>223.1513561777903</v>
       </c>
       <c r="AD7" t="n">
-        <v>158758.2547060099</v>
+        <v>180300.8973086749</v>
       </c>
       <c r="AE7" t="n">
-        <v>217220.0480085508</v>
+        <v>246695.6420118184</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.86934172580805e-06</v>
+        <v>7.968071409766784e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.396158854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>196488.8714969291</v>
+        <v>223151.3561777903</v>
       </c>
     </row>
     <row r="8">
@@ -56350,28 +56350,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>155.2678210778074</v>
+        <v>176.8104636804724</v>
       </c>
       <c r="AB8" t="n">
-        <v>212.4442827313827</v>
+        <v>241.9198767346503</v>
       </c>
       <c r="AC8" t="n">
-        <v>192.1688985549837</v>
+        <v>218.8313832358448</v>
       </c>
       <c r="AD8" t="n">
-        <v>155267.8210778074</v>
+        <v>176810.4636804724</v>
       </c>
       <c r="AE8" t="n">
-        <v>212444.2827313827</v>
+        <v>241919.8767346503</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.898918575561005e-06</v>
+        <v>8.028978527206321e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>192168.8985549837</v>
+        <v>218831.3832358448</v>
       </c>
     </row>
     <row r="9">
@@ -56456,28 +56456,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>152.9748773486361</v>
+        <v>174.517519951301</v>
       </c>
       <c r="AB9" t="n">
-        <v>209.3069759635941</v>
+        <v>238.7825699668617</v>
       </c>
       <c r="AC9" t="n">
-        <v>189.3310119418742</v>
+        <v>215.9934966227353</v>
       </c>
       <c r="AD9" t="n">
-        <v>152974.8773486361</v>
+        <v>174517.519951301</v>
       </c>
       <c r="AE9" t="n">
-        <v>209306.9759635941</v>
+        <v>238782.5699668617</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.91720814696301e-06</v>
+        <v>8.066641939050558e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>189331.0119418742</v>
+        <v>215993.4966227353</v>
       </c>
     </row>
   </sheetData>
@@ -56753,28 +56753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.1418105089301</v>
+        <v>412.1016989694526</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.3396222918611</v>
+        <v>563.8557251738391</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.3970337784131</v>
+        <v>510.0421261397278</v>
       </c>
       <c r="AD2" t="n">
-        <v>367141.8105089301</v>
+        <v>412101.6989694526</v>
       </c>
       <c r="AE2" t="n">
-        <v>502339.6222918611</v>
+        <v>563855.7251738391</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351648379845224e-06</v>
+        <v>4.659048406649185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.964518229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>454397.0337784131</v>
+        <v>510042.1261397278</v>
       </c>
     </row>
     <row r="3">
@@ -56859,28 +56859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.7704134671811</v>
+        <v>278.3837432529126</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.905678214162</v>
+        <v>380.8969189426089</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.9427503285737</v>
+        <v>344.5446515909089</v>
       </c>
       <c r="AD3" t="n">
-        <v>244770.4134671811</v>
+        <v>278383.7432529125</v>
       </c>
       <c r="AE3" t="n">
-        <v>334905.678214162</v>
+        <v>380896.9189426089</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.10118536078173e-06</v>
+        <v>6.144019164474258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.281575520833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>302942.7503285736</v>
+        <v>344544.6515909089</v>
       </c>
     </row>
     <row r="4">
@@ -56965,28 +56965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.3297425250649</v>
+        <v>243.0283236568135</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.4141886991296</v>
+        <v>332.5220740800401</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.0792205146075</v>
+        <v>300.7866340276021</v>
       </c>
       <c r="AD4" t="n">
-        <v>209329.7425250649</v>
+        <v>243028.3236568135</v>
       </c>
       <c r="AE4" t="n">
-        <v>286414.1886991296</v>
+        <v>332522.07408004</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.364413813208888e-06</v>
+        <v>6.665523192192125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.8681640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>259079.2205146075</v>
+        <v>300786.6340276021</v>
       </c>
     </row>
     <row r="5">
@@ -57071,28 +57071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.9331054108813</v>
+        <v>231.6316865426299</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.8208070153667</v>
+        <v>316.9286923962772</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.9740492932893</v>
+        <v>286.6814628062839</v>
       </c>
       <c r="AD5" t="n">
-        <v>197933.1054108813</v>
+        <v>231631.6865426299</v>
       </c>
       <c r="AE5" t="n">
-        <v>270820.8070153667</v>
+        <v>316928.6923962772</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.499851694312463e-06</v>
+        <v>6.933850570368061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.679361979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>244974.0492932893</v>
+        <v>286681.462806284</v>
       </c>
     </row>
     <row r="6">
@@ -57177,28 +57177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>190.5590545959843</v>
+        <v>213.1670101081028</v>
       </c>
       <c r="AB6" t="n">
-        <v>260.7313053702677</v>
+        <v>291.6645074945374</v>
       </c>
       <c r="AC6" t="n">
-        <v>235.8474755244908</v>
+        <v>263.8284562530519</v>
       </c>
       <c r="AD6" t="n">
-        <v>190559.0545959843</v>
+        <v>213167.0101081028</v>
       </c>
       <c r="AE6" t="n">
-        <v>260731.3053702677</v>
+        <v>291664.5074945373</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.588500114262129e-06</v>
+        <v>7.109479411506991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>235847.4755244908</v>
+        <v>263828.4562530519</v>
       </c>
     </row>
     <row r="7">
@@ -57283,28 +57283,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.9865619503045</v>
+        <v>208.5945174624229</v>
       </c>
       <c r="AB7" t="n">
-        <v>254.4750192083132</v>
+        <v>285.4082213325828</v>
       </c>
       <c r="AC7" t="n">
-        <v>230.1882805330785</v>
+        <v>258.1692612616396</v>
       </c>
       <c r="AD7" t="n">
-        <v>185986.5619503045</v>
+        <v>208594.517462423</v>
       </c>
       <c r="AE7" t="n">
-        <v>254475.0192083132</v>
+        <v>285408.2213325828</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.637201402861038e-06</v>
+        <v>7.205965630702498e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.501953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>230188.2805330785</v>
+        <v>258169.2612616396</v>
       </c>
     </row>
     <row r="8">
@@ -57389,28 +57389,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>182.0452145438535</v>
+        <v>204.4825778553798</v>
       </c>
       <c r="AB8" t="n">
-        <v>249.0822938068339</v>
+        <v>279.7820841562567</v>
       </c>
       <c r="AC8" t="n">
-        <v>225.310229275177</v>
+        <v>253.0800747210871</v>
       </c>
       <c r="AD8" t="n">
-        <v>182045.2145438535</v>
+        <v>204482.5778553798</v>
       </c>
       <c r="AE8" t="n">
-        <v>249082.2938068339</v>
+        <v>279782.0841562567</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.678959739159689e-06</v>
+        <v>7.28869658311187e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.451497395833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>225310.229275177</v>
+        <v>253080.0747210871</v>
       </c>
     </row>
     <row r="9">
@@ -57495,28 +57495,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>178.5052917982934</v>
+        <v>200.9426551098196</v>
       </c>
       <c r="AB9" t="n">
-        <v>244.2388153359913</v>
+        <v>274.9386056854142</v>
       </c>
       <c r="AC9" t="n">
-        <v>220.9290055917255</v>
+        <v>248.6988510376355</v>
       </c>
       <c r="AD9" t="n">
-        <v>178505.2917982934</v>
+        <v>200942.6551098196</v>
       </c>
       <c r="AE9" t="n">
-        <v>244238.8153359913</v>
+        <v>274938.6056854142</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.712668275689925e-06</v>
+        <v>7.355479400117026e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.410807291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>220929.0055917255</v>
+        <v>248698.8510376355</v>
       </c>
     </row>
     <row r="10">
@@ -57601,28 +57601,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>175.304676949153</v>
+        <v>197.7420402606793</v>
       </c>
       <c r="AB10" t="n">
-        <v>239.859592898238</v>
+        <v>270.5593832476608</v>
       </c>
       <c r="AC10" t="n">
-        <v>216.9677299971526</v>
+        <v>244.7375754430626</v>
       </c>
       <c r="AD10" t="n">
-        <v>175304.676949153</v>
+        <v>197742.0402606793</v>
       </c>
       <c r="AE10" t="n">
-        <v>239859.592898238</v>
+        <v>270559.3832476608</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.738930747434378e-06</v>
+        <v>7.40751019187328e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.3798828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>216967.7299971526</v>
+        <v>244737.5754430626</v>
       </c>
     </row>
     <row r="11">
@@ -57707,28 +57707,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>172.5832282091758</v>
+        <v>195.0205915207021</v>
       </c>
       <c r="AB11" t="n">
-        <v>236.1359866703582</v>
+        <v>266.8357770197811</v>
       </c>
       <c r="AC11" t="n">
-        <v>213.5994995215463</v>
+        <v>241.3693449674564</v>
       </c>
       <c r="AD11" t="n">
-        <v>172583.2282091758</v>
+        <v>195020.5915207021</v>
       </c>
       <c r="AE11" t="n">
-        <v>236135.9866703582</v>
+        <v>266835.7770197811</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.757646531895942e-06</v>
+        <v>7.444589606688083e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.358723958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>213599.4995215463</v>
+        <v>241369.3449674564</v>
       </c>
     </row>
     <row r="12">
@@ -57813,28 +57813,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>169.6452193845232</v>
+        <v>192.0825826960495</v>
       </c>
       <c r="AB12" t="n">
-        <v>232.1160733806691</v>
+        <v>262.8158637300918</v>
       </c>
       <c r="AC12" t="n">
-        <v>209.96324111424</v>
+        <v>237.7330865601501</v>
       </c>
       <c r="AD12" t="n">
-        <v>169645.2193845232</v>
+        <v>192082.5826960494</v>
       </c>
       <c r="AE12" t="n">
-        <v>232116.0733806691</v>
+        <v>262815.8637300918</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.7762616938604e-06</v>
+        <v>7.481469669810332e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.337565104166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>209963.24111424</v>
+        <v>237733.0865601501</v>
       </c>
     </row>
     <row r="13">
@@ -57919,28 +57919,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>168.340595157967</v>
+        <v>190.7779584694932</v>
       </c>
       <c r="AB13" t="n">
-        <v>230.3310289579369</v>
+        <v>261.0308193073597</v>
       </c>
       <c r="AC13" t="n">
-        <v>208.3485588258873</v>
+        <v>236.1184042717973</v>
       </c>
       <c r="AD13" t="n">
-        <v>168340.5951579669</v>
+        <v>190777.9584694932</v>
       </c>
       <c r="AE13" t="n">
-        <v>230331.0289579369</v>
+        <v>261030.8193073597</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.783506513651974e-06</v>
+        <v>7.495822991674127e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.327799479166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>208348.5588258873</v>
+        <v>236118.4042717973</v>
       </c>
     </row>
     <row r="14">
@@ -58025,28 +58025,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>169.0298384897388</v>
+        <v>191.4672018012651</v>
       </c>
       <c r="AB14" t="n">
-        <v>231.2740820917364</v>
+        <v>261.9738724411592</v>
       </c>
       <c r="AC14" t="n">
-        <v>209.2016082921807</v>
+        <v>236.9714537380908</v>
       </c>
       <c r="AD14" t="n">
-        <v>169029.8384897388</v>
+        <v>191467.2018012651</v>
       </c>
       <c r="AE14" t="n">
-        <v>231274.0820917364</v>
+        <v>261973.8724411592</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.783305268657763e-06</v>
+        <v>7.495424288289021e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.329427083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>209201.6082921807</v>
+        <v>236971.4537380908</v>
       </c>
     </row>
   </sheetData>
